--- a/services/limbless-app/static/resources/templates/library_prep/QSEQ.xlsx
+++ b/services/limbless-app/static/resources/templates/library_prep/QSEQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agynter/dev/limbless-app-dev/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC8287-9607-4B45-9AED-9D1E62EDC857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A3663-44E3-D543-90C5-B92DF1E7EC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="3900" windowWidth="29040" windowHeight="17520" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="62340" yWindow="6280" windowWidth="29040" windowHeight="17520" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -475,9 +475,6 @@
     <t>name_i5</t>
   </si>
   <si>
-    <t>library_conc_ng_ul</t>
-  </si>
-  <si>
     <t>ba</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>pool</t>
+  </si>
+  <si>
+    <t>lib_conc_ng_ul</t>
   </si>
 </sst>
 </file>
@@ -1707,98 +1707,105 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1845,102 +1852,95 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1953,21 +1953,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
+          <bgColor rgb="FFF1AFF3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF1AFF3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1981,14 +1981,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2043,6 +2036,48 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1AFF3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFF1AFF3"/>
         </patternFill>
@@ -2080,6 +2115,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1AFF3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2128,7 +2205,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF1AFF3"/>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2150,55 +2262,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1AFF3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2233,7 +2296,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
+          <bgColor rgb="FF808000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2261,6 +2324,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF808000"/>
         </patternFill>
       </fill>
@@ -2268,7 +2338,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2282,112 +2387,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD60093"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF808000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD60093"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF808000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5947,8 +5947,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5976,111 +5976,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="171" t="s">
+      <c r="F1" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="171" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="171" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="171" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="171" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="171" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="171" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="171" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="171" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="171" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="171" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="171" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="171" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="171" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" s="171" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y1" s="171" t="s">
+      <c r="Z1" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="171" t="s">
+      <c r="AA1" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="171" t="s">
+      <c r="AB1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="171" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="170">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170" t="e">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93" t="e">
         <f t="shared" ref="L2:L65" si="0">G2/J2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170">
+      <c r="M2" s="93"/>
+      <c r="N2" s="93">
         <f>5-O2</f>
         <v>0</v>
       </c>
@@ -6091,45 +6091,45 @@
         <f t="shared" ref="P2:P33" si="1">+G2*O2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170" t="e">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB2" s="170" t="e">
+      <c r="AB2" s="93" t="e">
         <f>+AA2*1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="170">
+      <c r="A3" s="93">
         <v>2</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170" t="e">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170">
+      <c r="M3" s="93"/>
+      <c r="N3" s="93">
         <f t="shared" ref="N3:N66" si="2">5-O3</f>
         <v>0</v>
       </c>
@@ -6140,45 +6140,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170" t="e">
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB3" s="170" t="e">
+      <c r="AB3" s="93" t="e">
         <f t="shared" ref="AB3:AB66" si="3">+AA3*1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="170">
+      <c r="A4" s="93">
         <v>3</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170" t="e">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170">
+      <c r="M4" s="93"/>
+      <c r="N4" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6189,45 +6189,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170" t="e">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB4" s="170" t="e">
+      <c r="AB4" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="170">
+      <c r="A5" s="93">
         <v>4</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170" t="e">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170">
+      <c r="M5" s="93"/>
+      <c r="N5" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6238,45 +6238,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170" t="e">
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB5" s="170" t="e">
+      <c r="AB5" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="170">
-        <v>5</v>
-      </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170" t="e">
+      <c r="A6" s="93">
+        <v>5</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170">
+      <c r="M6" s="93"/>
+      <c r="N6" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6287,45 +6287,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="170"/>
-      <c r="V6" s="170"/>
-      <c r="W6" s="170"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="170"/>
-      <c r="Z6" s="170"/>
-      <c r="AA6" s="170" t="e">
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB6" s="170" t="e">
+      <c r="AB6" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="170">
+      <c r="A7" s="93">
         <v>6</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170" t="e">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170">
+      <c r="M7" s="93"/>
+      <c r="N7" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6336,45 +6336,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170" t="e">
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB7" s="170" t="e">
+      <c r="AB7" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="170">
+      <c r="A8" s="93">
         <v>7</v>
       </c>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170" t="e">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170">
+      <c r="M8" s="93"/>
+      <c r="N8" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6385,45 +6385,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170"/>
-      <c r="AA8" s="170" t="e">
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB8" s="170" t="e">
+      <c r="AB8" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="170">
+      <c r="A9" s="93">
         <v>8</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170" t="e">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170">
+      <c r="M9" s="93"/>
+      <c r="N9" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6434,45 +6434,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170" t="e">
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB9" s="170" t="e">
+      <c r="AB9" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="170">
+      <c r="A10" s="93">
         <v>9</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170" t="e">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170">
+      <c r="M10" s="93"/>
+      <c r="N10" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6483,45 +6483,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170" t="e">
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB10" s="170" t="e">
+      <c r="AB10" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="170">
+      <c r="A11" s="93">
         <v>10</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170" t="e">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170">
+      <c r="M11" s="93"/>
+      <c r="N11" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6532,45 +6532,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="170"/>
-      <c r="AA11" s="170" t="e">
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB11" s="170" t="e">
+      <c r="AB11" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="170">
+      <c r="A12" s="93">
         <v>11</v>
       </c>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170" t="e">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170">
+      <c r="M12" s="93"/>
+      <c r="N12" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6581,45 +6581,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
-      <c r="Y12" s="170"/>
-      <c r="Z12" s="170"/>
-      <c r="AA12" s="170" t="e">
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB12" s="170" t="e">
+      <c r="AB12" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="170">
+      <c r="A13" s="93">
         <v>12</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170" t="e">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170">
+      <c r="M13" s="93"/>
+      <c r="N13" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6630,45 +6630,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="170"/>
-      <c r="V13" s="170"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="170"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="170"/>
-      <c r="AA13" s="170" t="e">
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB13" s="170" t="e">
+      <c r="AB13" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="170">
+      <c r="A14" s="93">
         <v>13</v>
       </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170" t="e">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170">
+      <c r="M14" s="93"/>
+      <c r="N14" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6679,45 +6679,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="170"/>
-      <c r="AA14" s="170" t="e">
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB14" s="170" t="e">
+      <c r="AB14" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="170">
+      <c r="A15" s="93">
         <v>14</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170" t="e">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170">
+      <c r="M15" s="93"/>
+      <c r="N15" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6728,45 +6728,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="170"/>
-      <c r="X15" s="170"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="170"/>
-      <c r="AA15" s="170" t="e">
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB15" s="170" t="e">
+      <c r="AB15" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="170">
+      <c r="A16" s="93">
         <v>15</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170" t="e">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170">
+      <c r="M16" s="93"/>
+      <c r="N16" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6777,45 +6777,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="170"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="170"/>
-      <c r="U16" s="170"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="170"/>
-      <c r="X16" s="170"/>
-      <c r="Y16" s="170"/>
-      <c r="Z16" s="170"/>
-      <c r="AA16" s="170" t="e">
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB16" s="170" t="e">
+      <c r="AB16" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="170">
+      <c r="A17" s="93">
         <v>16</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170" t="e">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170">
+      <c r="M17" s="93"/>
+      <c r="N17" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6826,45 +6826,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="170"/>
-      <c r="W17" s="170"/>
-      <c r="X17" s="170"/>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="170"/>
-      <c r="AA17" s="170" t="e">
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB17" s="170" t="e">
+      <c r="AB17" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="170">
+      <c r="A18" s="93">
         <v>17</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170" t="e">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170">
+      <c r="M18" s="93"/>
+      <c r="N18" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6875,45 +6875,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="170"/>
-      <c r="W18" s="170"/>
-      <c r="X18" s="170"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="170"/>
-      <c r="AA18" s="170" t="e">
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB18" s="170" t="e">
+      <c r="AB18" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="170">
+      <c r="A19" s="93">
         <v>18</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170" t="e">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170">
+      <c r="M19" s="93"/>
+      <c r="N19" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6924,45 +6924,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="170"/>
-      <c r="V19" s="170"/>
-      <c r="W19" s="170"/>
-      <c r="X19" s="170"/>
-      <c r="Y19" s="170"/>
-      <c r="Z19" s="170"/>
-      <c r="AA19" s="170" t="e">
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB19" s="170" t="e">
+      <c r="AB19" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="170">
+      <c r="A20" s="93">
         <v>19</v>
       </c>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170" t="e">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170">
+      <c r="M20" s="93"/>
+      <c r="N20" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6973,45 +6973,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="170"/>
-      <c r="U20" s="170"/>
-      <c r="V20" s="170"/>
-      <c r="W20" s="170"/>
-      <c r="X20" s="170"/>
-      <c r="Y20" s="170"/>
-      <c r="Z20" s="170"/>
-      <c r="AA20" s="170" t="e">
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB20" s="170" t="e">
+      <c r="AB20" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="170">
+      <c r="A21" s="93">
         <v>20</v>
       </c>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170" t="e">
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170">
+      <c r="M21" s="93"/>
+      <c r="N21" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7022,45 +7022,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="170"/>
-      <c r="S21" s="170"/>
-      <c r="T21" s="170"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="170"/>
-      <c r="W21" s="170"/>
-      <c r="X21" s="170"/>
-      <c r="Y21" s="170"/>
-      <c r="Z21" s="170"/>
-      <c r="AA21" s="170" t="e">
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB21" s="170" t="e">
+      <c r="AB21" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="170">
+      <c r="A22" s="93">
         <v>21</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170" t="e">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170">
+      <c r="M22" s="93"/>
+      <c r="N22" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7071,45 +7071,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="170"/>
-      <c r="S22" s="170"/>
-      <c r="T22" s="170"/>
-      <c r="U22" s="170"/>
-      <c r="V22" s="170"/>
-      <c r="W22" s="170"/>
-      <c r="X22" s="170"/>
-      <c r="Y22" s="170"/>
-      <c r="Z22" s="170"/>
-      <c r="AA22" s="170" t="e">
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB22" s="170" t="e">
+      <c r="AB22" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="170">
+      <c r="A23" s="93">
         <v>22</v>
       </c>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170" t="e">
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170">
+      <c r="M23" s="93"/>
+      <c r="N23" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7120,45 +7120,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="170"/>
-      <c r="Y23" s="170"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="170" t="e">
+      <c r="Q23" s="93"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB23" s="170" t="e">
+      <c r="AB23" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="170">
+      <c r="A24" s="93">
         <v>23</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170" t="e">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170">
+      <c r="M24" s="93"/>
+      <c r="N24" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7169,45 +7169,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
-      <c r="U24" s="170"/>
-      <c r="V24" s="170"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170" t="e">
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB24" s="170" t="e">
+      <c r="AB24" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="170">
+      <c r="A25" s="93">
         <v>24</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170" t="e">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170">
+      <c r="M25" s="93"/>
+      <c r="N25" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7218,45 +7218,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170" t="e">
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB25" s="170" t="e">
+      <c r="AB25" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="170">
+      <c r="A26" s="93">
         <v>25</v>
       </c>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170" t="e">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170">
+      <c r="M26" s="93"/>
+      <c r="N26" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7267,45 +7267,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170" t="e">
+      <c r="Q26" s="93"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB26" s="170" t="e">
+      <c r="AB26" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="170">
+      <c r="A27" s="93">
         <v>26</v>
       </c>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170" t="e">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170">
+      <c r="M27" s="93"/>
+      <c r="N27" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7316,45 +7316,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170" t="e">
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB27" s="170" t="e">
+      <c r="AB27" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="170">
+      <c r="A28" s="93">
         <v>27</v>
       </c>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170" t="e">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170">
+      <c r="M28" s="93"/>
+      <c r="N28" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7365,45 +7365,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170"/>
-      <c r="W28" s="170"/>
-      <c r="X28" s="170"/>
-      <c r="Y28" s="170"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="170" t="e">
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB28" s="170" t="e">
+      <c r="AB28" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="170">
+      <c r="A29" s="93">
         <v>28</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170" t="e">
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170">
+      <c r="M29" s="93"/>
+      <c r="N29" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7414,45 +7414,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="170"/>
-      <c r="V29" s="170"/>
-      <c r="W29" s="170"/>
-      <c r="X29" s="170"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170" t="e">
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB29" s="170" t="e">
+      <c r="AB29" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="170">
+      <c r="A30" s="93">
         <v>29</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170" t="e">
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170">
+      <c r="M30" s="93"/>
+      <c r="N30" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7463,45 +7463,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="170"/>
-      <c r="X30" s="170"/>
-      <c r="Y30" s="170"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="170" t="e">
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB30" s="170" t="e">
+      <c r="AB30" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="170">
+      <c r="A31" s="93">
         <v>30</v>
       </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170" t="e">
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170">
+      <c r="M31" s="93"/>
+      <c r="N31" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7512,45 +7512,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170" t="e">
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB31" s="170" t="e">
+      <c r="AB31" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="170">
+      <c r="A32" s="93">
         <v>31</v>
       </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170" t="e">
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170">
+      <c r="M32" s="93"/>
+      <c r="N32" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7561,45 +7561,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170"/>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170" t="e">
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB32" s="170" t="e">
+      <c r="AB32" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="170">
+      <c r="A33" s="93">
         <v>32</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170" t="e">
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170">
+      <c r="M33" s="93"/>
+      <c r="N33" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7610,45 +7610,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-      <c r="V33" s="170"/>
-      <c r="W33" s="170"/>
-      <c r="X33" s="170"/>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170" t="e">
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB33" s="170" t="e">
+      <c r="AB33" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="170">
+      <c r="A34" s="93">
         <v>33</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170" t="e">
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="170"/>
-      <c r="N34" s="170">
+      <c r="M34" s="93"/>
+      <c r="N34" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7659,45 +7659,45 @@
         <f t="shared" ref="P34:P65" si="4">+G34*O34</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="170"/>
-      <c r="R34" s="170"/>
-      <c r="S34" s="170"/>
-      <c r="T34" s="170"/>
-      <c r="U34" s="170"/>
-      <c r="V34" s="170"/>
-      <c r="W34" s="170"/>
-      <c r="X34" s="170"/>
-      <c r="Y34" s="170"/>
-      <c r="Z34" s="170"/>
-      <c r="AA34" s="170" t="e">
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB34" s="170" t="e">
+      <c r="AB34" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="170">
+      <c r="A35" s="93">
         <v>34</v>
       </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170" t="e">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="170"/>
-      <c r="N35" s="170">
+      <c r="M35" s="93"/>
+      <c r="N35" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7708,45 +7708,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="170"/>
-      <c r="R35" s="170"/>
-      <c r="S35" s="170"/>
-      <c r="T35" s="170"/>
-      <c r="U35" s="170"/>
-      <c r="V35" s="170"/>
-      <c r="W35" s="170"/>
-      <c r="X35" s="170"/>
-      <c r="Y35" s="170"/>
-      <c r="Z35" s="170"/>
-      <c r="AA35" s="170" t="e">
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB35" s="170" t="e">
+      <c r="AB35" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="170">
+      <c r="A36" s="93">
         <v>35</v>
       </c>
-      <c r="B36" s="170"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170" t="e">
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="170"/>
-      <c r="N36" s="170">
+      <c r="M36" s="93"/>
+      <c r="N36" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7757,45 +7757,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="170"/>
-      <c r="R36" s="170"/>
-      <c r="S36" s="170"/>
-      <c r="T36" s="170"/>
-      <c r="U36" s="170"/>
-      <c r="V36" s="170"/>
-      <c r="W36" s="170"/>
-      <c r="X36" s="170"/>
-      <c r="Y36" s="170"/>
-      <c r="Z36" s="170"/>
-      <c r="AA36" s="170" t="e">
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB36" s="170" t="e">
+      <c r="AB36" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="170">
+      <c r="A37" s="93">
         <v>36</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170" t="e">
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="170"/>
-      <c r="N37" s="170">
+      <c r="M37" s="93"/>
+      <c r="N37" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7806,45 +7806,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="170"/>
-      <c r="T37" s="170"/>
-      <c r="U37" s="170"/>
-      <c r="V37" s="170"/>
-      <c r="W37" s="170"/>
-      <c r="X37" s="170"/>
-      <c r="Y37" s="170"/>
-      <c r="Z37" s="170"/>
-      <c r="AA37" s="170" t="e">
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB37" s="170" t="e">
+      <c r="AB37" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="170">
+      <c r="A38" s="93">
         <v>37</v>
       </c>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170" t="e">
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170">
+      <c r="M38" s="93"/>
+      <c r="N38" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7855,45 +7855,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="170"/>
-      <c r="R38" s="170"/>
-      <c r="S38" s="170"/>
-      <c r="T38" s="170"/>
-      <c r="U38" s="170"/>
-      <c r="V38" s="170"/>
-      <c r="W38" s="170"/>
-      <c r="X38" s="170"/>
-      <c r="Y38" s="170"/>
-      <c r="Z38" s="170"/>
-      <c r="AA38" s="170" t="e">
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB38" s="170" t="e">
+      <c r="AB38" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="170">
+      <c r="A39" s="93">
         <v>38</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170" t="e">
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170">
+      <c r="M39" s="93"/>
+      <c r="N39" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7904,45 +7904,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
-      <c r="T39" s="170"/>
-      <c r="U39" s="170"/>
-      <c r="V39" s="170"/>
-      <c r="W39" s="170"/>
-      <c r="X39" s="170"/>
-      <c r="Y39" s="170"/>
-      <c r="Z39" s="170"/>
-      <c r="AA39" s="170" t="e">
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB39" s="170" t="e">
+      <c r="AB39" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="170">
+      <c r="A40" s="93">
         <v>39</v>
       </c>
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170" t="e">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="170"/>
-      <c r="N40" s="170">
+      <c r="M40" s="93"/>
+      <c r="N40" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7953,45 +7953,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="170"/>
-      <c r="R40" s="170"/>
-      <c r="S40" s="170"/>
-      <c r="T40" s="170"/>
-      <c r="U40" s="170"/>
-      <c r="V40" s="170"/>
-      <c r="W40" s="170"/>
-      <c r="X40" s="170"/>
-      <c r="Y40" s="170"/>
-      <c r="Z40" s="170"/>
-      <c r="AA40" s="170" t="e">
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB40" s="170" t="e">
+      <c r="AB40" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="170">
+      <c r="A41" s="93">
         <v>40</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170" t="e">
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170">
+      <c r="M41" s="93"/>
+      <c r="N41" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8002,45 +8002,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="170"/>
-      <c r="R41" s="170"/>
-      <c r="S41" s="170"/>
-      <c r="T41" s="170"/>
-      <c r="U41" s="170"/>
-      <c r="V41" s="170"/>
-      <c r="W41" s="170"/>
-      <c r="X41" s="170"/>
-      <c r="Y41" s="170"/>
-      <c r="Z41" s="170"/>
-      <c r="AA41" s="170" t="e">
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB41" s="170" t="e">
+      <c r="AB41" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="170">
+      <c r="A42" s="93">
         <v>41</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170" t="e">
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170">
+      <c r="M42" s="93"/>
+      <c r="N42" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8051,45 +8051,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="170"/>
-      <c r="S42" s="170"/>
-      <c r="T42" s="170"/>
-      <c r="U42" s="170"/>
-      <c r="V42" s="170"/>
-      <c r="W42" s="170"/>
-      <c r="X42" s="170"/>
-      <c r="Y42" s="170"/>
-      <c r="Z42" s="170"/>
-      <c r="AA42" s="170" t="e">
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB42" s="170" t="e">
+      <c r="AB42" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="170">
+      <c r="A43" s="93">
         <v>42</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170" t="e">
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="170"/>
-      <c r="N43" s="170">
+      <c r="M43" s="93"/>
+      <c r="N43" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8100,45 +8100,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="170"/>
-      <c r="R43" s="170"/>
-      <c r="S43" s="170"/>
-      <c r="T43" s="170"/>
-      <c r="U43" s="170"/>
-      <c r="V43" s="170"/>
-      <c r="W43" s="170"/>
-      <c r="X43" s="170"/>
-      <c r="Y43" s="170"/>
-      <c r="Z43" s="170"/>
-      <c r="AA43" s="170" t="e">
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB43" s="170" t="e">
+      <c r="AB43" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="170">
+      <c r="A44" s="93">
         <v>43</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170" t="e">
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="170"/>
-      <c r="N44" s="170">
+      <c r="M44" s="93"/>
+      <c r="N44" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8149,45 +8149,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="170"/>
-      <c r="R44" s="170"/>
-      <c r="S44" s="170"/>
-      <c r="T44" s="170"/>
-      <c r="U44" s="170"/>
-      <c r="V44" s="170"/>
-      <c r="W44" s="170"/>
-      <c r="X44" s="170"/>
-      <c r="Y44" s="170"/>
-      <c r="Z44" s="170"/>
-      <c r="AA44" s="170" t="e">
+      <c r="Q44" s="93"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="93"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB44" s="170" t="e">
+      <c r="AB44" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="170">
+      <c r="A45" s="93">
         <v>44</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170" t="e">
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M45" s="170"/>
-      <c r="N45" s="170">
+      <c r="M45" s="93"/>
+      <c r="N45" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8198,45 +8198,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="170"/>
-      <c r="R45" s="170"/>
-      <c r="S45" s="170"/>
-      <c r="T45" s="170"/>
-      <c r="U45" s="170"/>
-      <c r="V45" s="170"/>
-      <c r="W45" s="170"/>
-      <c r="X45" s="170"/>
-      <c r="Y45" s="170"/>
-      <c r="Z45" s="170"/>
-      <c r="AA45" s="170" t="e">
+      <c r="Q45" s="93"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB45" s="170" t="e">
+      <c r="AB45" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="170">
+      <c r="A46" s="93">
         <v>45</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="170" t="e">
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="170"/>
-      <c r="N46" s="170">
+      <c r="M46" s="93"/>
+      <c r="N46" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8247,45 +8247,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="170"/>
-      <c r="R46" s="170"/>
-      <c r="S46" s="170"/>
-      <c r="T46" s="170"/>
-      <c r="U46" s="170"/>
-      <c r="V46" s="170"/>
-      <c r="W46" s="170"/>
-      <c r="X46" s="170"/>
-      <c r="Y46" s="170"/>
-      <c r="Z46" s="170"/>
-      <c r="AA46" s="170" t="e">
+      <c r="Q46" s="93"/>
+      <c r="R46" s="93"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="93"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="93"/>
+      <c r="AA46" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB46" s="170" t="e">
+      <c r="AB46" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="170">
+      <c r="A47" s="93">
         <v>46</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170" t="e">
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170">
+      <c r="M47" s="93"/>
+      <c r="N47" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8296,45 +8296,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="170"/>
-      <c r="R47" s="170"/>
-      <c r="S47" s="170"/>
-      <c r="T47" s="170"/>
-      <c r="U47" s="170"/>
-      <c r="V47" s="170"/>
-      <c r="W47" s="170"/>
-      <c r="X47" s="170"/>
-      <c r="Y47" s="170"/>
-      <c r="Z47" s="170"/>
-      <c r="AA47" s="170" t="e">
+      <c r="Q47" s="93"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="93"/>
+      <c r="X47" s="93"/>
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="93"/>
+      <c r="AA47" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB47" s="170" t="e">
+      <c r="AB47" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" s="170">
+      <c r="A48" s="93">
         <v>47</v>
       </c>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170" t="e">
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="170"/>
-      <c r="N48" s="170">
+      <c r="M48" s="93"/>
+      <c r="N48" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8345,45 +8345,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="170"/>
-      <c r="R48" s="170"/>
-      <c r="S48" s="170"/>
-      <c r="T48" s="170"/>
-      <c r="U48" s="170"/>
-      <c r="V48" s="170"/>
-      <c r="W48" s="170"/>
-      <c r="X48" s="170"/>
-      <c r="Y48" s="170"/>
-      <c r="Z48" s="170"/>
-      <c r="AA48" s="170" t="e">
+      <c r="Q48" s="93"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="93"/>
+      <c r="W48" s="93"/>
+      <c r="X48" s="93"/>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="93"/>
+      <c r="AA48" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB48" s="170" t="e">
+      <c r="AB48" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="170">
+      <c r="A49" s="93">
         <v>48</v>
       </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170" t="e">
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="170"/>
-      <c r="N49" s="170">
+      <c r="M49" s="93"/>
+      <c r="N49" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8394,45 +8394,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="170"/>
-      <c r="R49" s="170"/>
-      <c r="S49" s="170"/>
-      <c r="T49" s="170"/>
-      <c r="U49" s="170"/>
-      <c r="V49" s="170"/>
-      <c r="W49" s="170"/>
-      <c r="X49" s="170"/>
-      <c r="Y49" s="170"/>
-      <c r="Z49" s="170"/>
-      <c r="AA49" s="170" t="e">
+      <c r="Q49" s="93"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
+      <c r="AA49" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB49" s="170" t="e">
+      <c r="AB49" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="170">
+      <c r="A50" s="93">
         <v>49</v>
       </c>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170" t="e">
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170">
+      <c r="M50" s="93"/>
+      <c r="N50" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8443,45 +8443,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="170"/>
-      <c r="R50" s="170"/>
-      <c r="S50" s="170"/>
-      <c r="T50" s="170"/>
-      <c r="U50" s="170"/>
-      <c r="V50" s="170"/>
-      <c r="W50" s="170"/>
-      <c r="X50" s="170"/>
-      <c r="Y50" s="170"/>
-      <c r="Z50" s="170"/>
-      <c r="AA50" s="170" t="e">
+      <c r="Q50" s="93"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="93"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="93"/>
+      <c r="AA50" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB50" s="170" t="e">
+      <c r="AB50" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="170">
+      <c r="A51" s="93">
         <v>50</v>
       </c>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="170" t="e">
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" s="170"/>
-      <c r="N51" s="170">
+      <c r="M51" s="93"/>
+      <c r="N51" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8492,45 +8492,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="170"/>
-      <c r="R51" s="170"/>
-      <c r="S51" s="170"/>
-      <c r="T51" s="170"/>
-      <c r="U51" s="170"/>
-      <c r="V51" s="170"/>
-      <c r="W51" s="170"/>
-      <c r="X51" s="170"/>
-      <c r="Y51" s="170"/>
-      <c r="Z51" s="170"/>
-      <c r="AA51" s="170" t="e">
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB51" s="170" t="e">
+      <c r="AB51" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="170">
+      <c r="A52" s="93">
         <v>51</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="170" t="e">
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="170"/>
-      <c r="N52" s="170">
+      <c r="M52" s="93"/>
+      <c r="N52" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8541,45 +8541,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="170"/>
-      <c r="R52" s="170"/>
-      <c r="S52" s="170"/>
-      <c r="T52" s="170"/>
-      <c r="U52" s="170"/>
-      <c r="V52" s="170"/>
-      <c r="W52" s="170"/>
-      <c r="X52" s="170"/>
-      <c r="Y52" s="170"/>
-      <c r="Z52" s="170"/>
-      <c r="AA52" s="170" t="e">
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="93"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB52" s="170" t="e">
+      <c r="AB52" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="170">
+      <c r="A53" s="93">
         <v>52</v>
       </c>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170" t="e">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M53" s="170"/>
-      <c r="N53" s="170">
+      <c r="M53" s="93"/>
+      <c r="N53" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8590,45 +8590,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="170"/>
-      <c r="R53" s="170"/>
-      <c r="S53" s="170"/>
-      <c r="T53" s="170"/>
-      <c r="U53" s="170"/>
-      <c r="V53" s="170"/>
-      <c r="W53" s="170"/>
-      <c r="X53" s="170"/>
-      <c r="Y53" s="170"/>
-      <c r="Z53" s="170"/>
-      <c r="AA53" s="170" t="e">
+      <c r="Q53" s="93"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="93"/>
+      <c r="W53" s="93"/>
+      <c r="X53" s="93"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="93"/>
+      <c r="AA53" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB53" s="170" t="e">
+      <c r="AB53" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="170">
+      <c r="A54" s="93">
         <v>53</v>
       </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170" t="e">
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M54" s="170"/>
-      <c r="N54" s="170">
+      <c r="M54" s="93"/>
+      <c r="N54" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8639,45 +8639,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="170"/>
-      <c r="R54" s="170"/>
-      <c r="S54" s="170"/>
-      <c r="T54" s="170"/>
-      <c r="U54" s="170"/>
-      <c r="V54" s="170"/>
-      <c r="W54" s="170"/>
-      <c r="X54" s="170"/>
-      <c r="Y54" s="170"/>
-      <c r="Z54" s="170"/>
-      <c r="AA54" s="170" t="e">
+      <c r="Q54" s="93"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="93"/>
+      <c r="V54" s="93"/>
+      <c r="W54" s="93"/>
+      <c r="X54" s="93"/>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="93"/>
+      <c r="AA54" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB54" s="170" t="e">
+      <c r="AB54" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="170">
+      <c r="A55" s="93">
         <v>54</v>
       </c>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="170" t="e">
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M55" s="170"/>
-      <c r="N55" s="170">
+      <c r="M55" s="93"/>
+      <c r="N55" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8688,45 +8688,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="170"/>
-      <c r="R55" s="170"/>
-      <c r="S55" s="170"/>
-      <c r="T55" s="170"/>
-      <c r="U55" s="170"/>
-      <c r="V55" s="170"/>
-      <c r="W55" s="170"/>
-      <c r="X55" s="170"/>
-      <c r="Y55" s="170"/>
-      <c r="Z55" s="170"/>
-      <c r="AA55" s="170" t="e">
+      <c r="Q55" s="93"/>
+      <c r="R55" s="93"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="93"/>
+      <c r="U55" s="93"/>
+      <c r="V55" s="93"/>
+      <c r="W55" s="93"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB55" s="170" t="e">
+      <c r="AB55" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="170">
+      <c r="A56" s="93">
         <v>55</v>
       </c>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170" t="e">
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" s="170"/>
-      <c r="N56" s="170">
+      <c r="M56" s="93"/>
+      <c r="N56" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8737,45 +8737,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="170"/>
-      <c r="R56" s="170"/>
-      <c r="S56" s="170"/>
-      <c r="T56" s="170"/>
-      <c r="U56" s="170"/>
-      <c r="V56" s="170"/>
-      <c r="W56" s="170"/>
-      <c r="X56" s="170"/>
-      <c r="Y56" s="170"/>
-      <c r="Z56" s="170"/>
-      <c r="AA56" s="170" t="e">
+      <c r="Q56" s="93"/>
+      <c r="R56" s="93"/>
+      <c r="S56" s="93"/>
+      <c r="T56" s="93"/>
+      <c r="U56" s="93"/>
+      <c r="V56" s="93"/>
+      <c r="W56" s="93"/>
+      <c r="X56" s="93"/>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="93"/>
+      <c r="AA56" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB56" s="170" t="e">
+      <c r="AB56" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A57" s="170">
+      <c r="A57" s="93">
         <v>56</v>
       </c>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="170" t="e">
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" s="170"/>
-      <c r="N57" s="170">
+      <c r="M57" s="93"/>
+      <c r="N57" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8786,45 +8786,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="170"/>
-      <c r="R57" s="170"/>
-      <c r="S57" s="170"/>
-      <c r="T57" s="170"/>
-      <c r="U57" s="170"/>
-      <c r="V57" s="170"/>
-      <c r="W57" s="170"/>
-      <c r="X57" s="170"/>
-      <c r="Y57" s="170"/>
-      <c r="Z57" s="170"/>
-      <c r="AA57" s="170" t="e">
+      <c r="Q57" s="93"/>
+      <c r="R57" s="93"/>
+      <c r="S57" s="93"/>
+      <c r="T57" s="93"/>
+      <c r="U57" s="93"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
+      <c r="X57" s="93"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="93"/>
+      <c r="AA57" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB57" s="170" t="e">
+      <c r="AB57" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58" s="170">
+      <c r="A58" s="93">
         <v>57</v>
       </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="170"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="170" t="e">
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170">
+      <c r="M58" s="93"/>
+      <c r="N58" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8835,45 +8835,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="170"/>
-      <c r="R58" s="170"/>
-      <c r="S58" s="170"/>
-      <c r="T58" s="170"/>
-      <c r="U58" s="170"/>
-      <c r="V58" s="170"/>
-      <c r="W58" s="170"/>
-      <c r="X58" s="170"/>
-      <c r="Y58" s="170"/>
-      <c r="Z58" s="170"/>
-      <c r="AA58" s="170" t="e">
+      <c r="Q58" s="93"/>
+      <c r="R58" s="93"/>
+      <c r="S58" s="93"/>
+      <c r="T58" s="93"/>
+      <c r="U58" s="93"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
+      <c r="X58" s="93"/>
+      <c r="Y58" s="93"/>
+      <c r="Z58" s="93"/>
+      <c r="AA58" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB58" s="170" t="e">
+      <c r="AB58" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59" s="170">
+      <c r="A59" s="93">
         <v>58</v>
       </c>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="170"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170" t="e">
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="170"/>
-      <c r="N59" s="170">
+      <c r="M59" s="93"/>
+      <c r="N59" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8884,45 +8884,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="170"/>
-      <c r="R59" s="170"/>
-      <c r="S59" s="170"/>
-      <c r="T59" s="170"/>
-      <c r="U59" s="170"/>
-      <c r="V59" s="170"/>
-      <c r="W59" s="170"/>
-      <c r="X59" s="170"/>
-      <c r="Y59" s="170"/>
-      <c r="Z59" s="170"/>
-      <c r="AA59" s="170" t="e">
+      <c r="Q59" s="93"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="93"/>
+      <c r="T59" s="93"/>
+      <c r="U59" s="93"/>
+      <c r="V59" s="93"/>
+      <c r="W59" s="93"/>
+      <c r="X59" s="93"/>
+      <c r="Y59" s="93"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB59" s="170" t="e">
+      <c r="AB59" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="170">
+      <c r="A60" s="93">
         <v>59</v>
       </c>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="170" t="e">
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M60" s="170"/>
-      <c r="N60" s="170">
+      <c r="M60" s="93"/>
+      <c r="N60" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8933,45 +8933,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="170"/>
-      <c r="R60" s="170"/>
-      <c r="S60" s="170"/>
-      <c r="T60" s="170"/>
-      <c r="U60" s="170"/>
-      <c r="V60" s="170"/>
-      <c r="W60" s="170"/>
-      <c r="X60" s="170"/>
-      <c r="Y60" s="170"/>
-      <c r="Z60" s="170"/>
-      <c r="AA60" s="170" t="e">
+      <c r="Q60" s="93"/>
+      <c r="R60" s="93"/>
+      <c r="S60" s="93"/>
+      <c r="T60" s="93"/>
+      <c r="U60" s="93"/>
+      <c r="V60" s="93"/>
+      <c r="W60" s="93"/>
+      <c r="X60" s="93"/>
+      <c r="Y60" s="93"/>
+      <c r="Z60" s="93"/>
+      <c r="AA60" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB60" s="170" t="e">
+      <c r="AB60" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" s="170">
+      <c r="A61" s="93">
         <v>60</v>
       </c>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="170"/>
-      <c r="J61" s="170"/>
-      <c r="K61" s="170"/>
-      <c r="L61" s="170" t="e">
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M61" s="170"/>
-      <c r="N61" s="170">
+      <c r="M61" s="93"/>
+      <c r="N61" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8982,45 +8982,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="170"/>
-      <c r="R61" s="170"/>
-      <c r="S61" s="170"/>
-      <c r="T61" s="170"/>
-      <c r="U61" s="170"/>
-      <c r="V61" s="170"/>
-      <c r="W61" s="170"/>
-      <c r="X61" s="170"/>
-      <c r="Y61" s="170"/>
-      <c r="Z61" s="170"/>
-      <c r="AA61" s="170" t="e">
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="93"/>
+      <c r="V61" s="93"/>
+      <c r="W61" s="93"/>
+      <c r="X61" s="93"/>
+      <c r="Y61" s="93"/>
+      <c r="Z61" s="93"/>
+      <c r="AA61" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB61" s="170" t="e">
+      <c r="AB61" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="170">
+      <c r="A62" s="93">
         <v>61</v>
       </c>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="170"/>
-      <c r="G62" s="170"/>
-      <c r="H62" s="170"/>
-      <c r="I62" s="170"/>
-      <c r="J62" s="170"/>
-      <c r="K62" s="170"/>
-      <c r="L62" s="170" t="e">
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M62" s="170"/>
-      <c r="N62" s="170">
+      <c r="M62" s="93"/>
+      <c r="N62" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9031,45 +9031,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="170"/>
-      <c r="R62" s="170"/>
-      <c r="S62" s="170"/>
-      <c r="T62" s="170"/>
-      <c r="U62" s="170"/>
-      <c r="V62" s="170"/>
-      <c r="W62" s="170"/>
-      <c r="X62" s="170"/>
-      <c r="Y62" s="170"/>
-      <c r="Z62" s="170"/>
-      <c r="AA62" s="170" t="e">
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="93"/>
+      <c r="T62" s="93"/>
+      <c r="U62" s="93"/>
+      <c r="V62" s="93"/>
+      <c r="W62" s="93"/>
+      <c r="X62" s="93"/>
+      <c r="Y62" s="93"/>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB62" s="170" t="e">
+      <c r="AB62" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63" s="170">
+      <c r="A63" s="93">
         <v>62</v>
       </c>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="170"/>
-      <c r="I63" s="170"/>
-      <c r="J63" s="170"/>
-      <c r="K63" s="170"/>
-      <c r="L63" s="170" t="e">
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M63" s="170"/>
-      <c r="N63" s="170">
+      <c r="M63" s="93"/>
+      <c r="N63" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9080,45 +9080,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="170"/>
-      <c r="R63" s="170"/>
-      <c r="S63" s="170"/>
-      <c r="T63" s="170"/>
-      <c r="U63" s="170"/>
-      <c r="V63" s="170"/>
-      <c r="W63" s="170"/>
-      <c r="X63" s="170"/>
-      <c r="Y63" s="170"/>
-      <c r="Z63" s="170"/>
-      <c r="AA63" s="170" t="e">
+      <c r="Q63" s="93"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="93"/>
+      <c r="T63" s="93"/>
+      <c r="U63" s="93"/>
+      <c r="V63" s="93"/>
+      <c r="W63" s="93"/>
+      <c r="X63" s="93"/>
+      <c r="Y63" s="93"/>
+      <c r="Z63" s="93"/>
+      <c r="AA63" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB63" s="170" t="e">
+      <c r="AB63" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" s="170">
+      <c r="A64" s="93">
         <v>63</v>
       </c>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="170"/>
-      <c r="J64" s="170"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="170" t="e">
+      <c r="B64" s="93"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M64" s="170"/>
-      <c r="N64" s="170">
+      <c r="M64" s="93"/>
+      <c r="N64" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9129,45 +9129,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="170"/>
-      <c r="R64" s="170"/>
-      <c r="S64" s="170"/>
-      <c r="T64" s="170"/>
-      <c r="U64" s="170"/>
-      <c r="V64" s="170"/>
-      <c r="W64" s="170"/>
-      <c r="X64" s="170"/>
-      <c r="Y64" s="170"/>
-      <c r="Z64" s="170"/>
-      <c r="AA64" s="170" t="e">
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="93"/>
+      <c r="T64" s="93"/>
+      <c r="U64" s="93"/>
+      <c r="V64" s="93"/>
+      <c r="W64" s="93"/>
+      <c r="X64" s="93"/>
+      <c r="Y64" s="93"/>
+      <c r="Z64" s="93"/>
+      <c r="AA64" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB64" s="170" t="e">
+      <c r="AB64" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65" s="170">
+      <c r="A65" s="93">
         <v>64</v>
       </c>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="170"/>
-      <c r="I65" s="170"/>
-      <c r="J65" s="170"/>
-      <c r="K65" s="170"/>
-      <c r="L65" s="170" t="e">
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M65" s="170"/>
-      <c r="N65" s="170">
+      <c r="M65" s="93"/>
+      <c r="N65" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9178,45 +9178,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="170"/>
-      <c r="R65" s="170"/>
-      <c r="S65" s="170"/>
-      <c r="T65" s="170"/>
-      <c r="U65" s="170"/>
-      <c r="V65" s="170"/>
-      <c r="W65" s="170"/>
-      <c r="X65" s="170"/>
-      <c r="Y65" s="170"/>
-      <c r="Z65" s="170"/>
-      <c r="AA65" s="170" t="e">
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="93"/>
+      <c r="T65" s="93"/>
+      <c r="U65" s="93"/>
+      <c r="V65" s="93"/>
+      <c r="W65" s="93"/>
+      <c r="X65" s="93"/>
+      <c r="Y65" s="93"/>
+      <c r="Z65" s="93"/>
+      <c r="AA65" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB65" s="170" t="e">
+      <c r="AB65" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66" s="170">
+      <c r="A66" s="93">
         <v>65</v>
       </c>
-      <c r="B66" s="170"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="170"/>
-      <c r="E66" s="170"/>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="170"/>
-      <c r="I66" s="170"/>
-      <c r="J66" s="170"/>
-      <c r="K66" s="170"/>
-      <c r="L66" s="170" t="e">
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93" t="e">
         <f t="shared" ref="L66:L97" si="5">G66/J66</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M66" s="170"/>
-      <c r="N66" s="170">
+      <c r="M66" s="93"/>
+      <c r="N66" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9227,45 +9227,45 @@
         <f t="shared" ref="P66:P97" si="6">+G66*O66</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="170"/>
-      <c r="R66" s="170"/>
-      <c r="S66" s="170"/>
-      <c r="T66" s="170"/>
-      <c r="U66" s="170"/>
-      <c r="V66" s="170"/>
-      <c r="W66" s="170"/>
-      <c r="X66" s="170"/>
-      <c r="Y66" s="170"/>
-      <c r="Z66" s="170"/>
-      <c r="AA66" s="170" t="e">
+      <c r="Q66" s="93"/>
+      <c r="R66" s="93"/>
+      <c r="S66" s="93"/>
+      <c r="T66" s="93"/>
+      <c r="U66" s="93"/>
+      <c r="V66" s="93"/>
+      <c r="W66" s="93"/>
+      <c r="X66" s="93"/>
+      <c r="Y66" s="93"/>
+      <c r="Z66" s="93"/>
+      <c r="AA66" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB66" s="170" t="e">
+      <c r="AB66" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67" s="170">
+      <c r="A67" s="93">
         <v>66</v>
       </c>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="170"/>
-      <c r="J67" s="170"/>
-      <c r="K67" s="170"/>
-      <c r="L67" s="170" t="e">
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M67" s="170"/>
-      <c r="N67" s="170">
+      <c r="M67" s="93"/>
+      <c r="N67" s="93">
         <f t="shared" ref="N67:N97" si="7">5-O67</f>
         <v>0</v>
       </c>
@@ -9276,45 +9276,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="170"/>
-      <c r="R67" s="170"/>
-      <c r="S67" s="170"/>
-      <c r="T67" s="170"/>
-      <c r="U67" s="170"/>
-      <c r="V67" s="170"/>
-      <c r="W67" s="170"/>
-      <c r="X67" s="170"/>
-      <c r="Y67" s="170"/>
-      <c r="Z67" s="170"/>
-      <c r="AA67" s="170" t="e">
+      <c r="Q67" s="93"/>
+      <c r="R67" s="93"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="93"/>
+      <c r="U67" s="93"/>
+      <c r="V67" s="93"/>
+      <c r="W67" s="93"/>
+      <c r="X67" s="93"/>
+      <c r="Y67" s="93"/>
+      <c r="Z67" s="93"/>
+      <c r="AA67" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB67" s="170" t="e">
+      <c r="AB67" s="93" t="e">
         <f t="shared" ref="AB67:AB97" si="8">+AA67*1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" s="170">
+      <c r="A68" s="93">
         <v>67</v>
       </c>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="170"/>
-      <c r="F68" s="170"/>
-      <c r="G68" s="170"/>
-      <c r="H68" s="170"/>
-      <c r="I68" s="170"/>
-      <c r="J68" s="170"/>
-      <c r="K68" s="170"/>
-      <c r="L68" s="170" t="e">
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M68" s="170"/>
-      <c r="N68" s="170">
+      <c r="M68" s="93"/>
+      <c r="N68" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9325,45 +9325,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="170"/>
-      <c r="R68" s="170"/>
-      <c r="S68" s="170"/>
-      <c r="T68" s="170"/>
-      <c r="U68" s="170"/>
-      <c r="V68" s="170"/>
-      <c r="W68" s="170"/>
-      <c r="X68" s="170"/>
-      <c r="Y68" s="170"/>
-      <c r="Z68" s="170"/>
-      <c r="AA68" s="170" t="e">
+      <c r="Q68" s="93"/>
+      <c r="R68" s="93"/>
+      <c r="S68" s="93"/>
+      <c r="T68" s="93"/>
+      <c r="U68" s="93"/>
+      <c r="V68" s="93"/>
+      <c r="W68" s="93"/>
+      <c r="X68" s="93"/>
+      <c r="Y68" s="93"/>
+      <c r="Z68" s="93"/>
+      <c r="AA68" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB68" s="170" t="e">
+      <c r="AB68" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69" s="170">
+      <c r="A69" s="93">
         <v>68</v>
       </c>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
-      <c r="E69" s="170"/>
-      <c r="F69" s="170"/>
-      <c r="G69" s="170"/>
-      <c r="H69" s="170"/>
-      <c r="I69" s="170"/>
-      <c r="J69" s="170"/>
-      <c r="K69" s="170"/>
-      <c r="L69" s="170" t="e">
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M69" s="170"/>
-      <c r="N69" s="170">
+      <c r="M69" s="93"/>
+      <c r="N69" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9374,45 +9374,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="170"/>
-      <c r="R69" s="170"/>
-      <c r="S69" s="170"/>
-      <c r="T69" s="170"/>
-      <c r="U69" s="170"/>
-      <c r="V69" s="170"/>
-      <c r="W69" s="170"/>
-      <c r="X69" s="170"/>
-      <c r="Y69" s="170"/>
-      <c r="Z69" s="170"/>
-      <c r="AA69" s="170" t="e">
+      <c r="Q69" s="93"/>
+      <c r="R69" s="93"/>
+      <c r="S69" s="93"/>
+      <c r="T69" s="93"/>
+      <c r="U69" s="93"/>
+      <c r="V69" s="93"/>
+      <c r="W69" s="93"/>
+      <c r="X69" s="93"/>
+      <c r="Y69" s="93"/>
+      <c r="Z69" s="93"/>
+      <c r="AA69" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB69" s="170" t="e">
+      <c r="AB69" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70" s="170">
+      <c r="A70" s="93">
         <v>69</v>
       </c>
-      <c r="B70" s="170"/>
-      <c r="C70" s="170"/>
-      <c r="D70" s="170"/>
-      <c r="E70" s="170"/>
-      <c r="F70" s="170"/>
-      <c r="G70" s="170"/>
-      <c r="H70" s="170"/>
-      <c r="I70" s="170"/>
-      <c r="J70" s="170"/>
-      <c r="K70" s="170"/>
-      <c r="L70" s="170" t="e">
+      <c r="B70" s="93"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="93"/>
+      <c r="J70" s="93"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M70" s="170"/>
-      <c r="N70" s="170">
+      <c r="M70" s="93"/>
+      <c r="N70" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9423,45 +9423,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="170"/>
-      <c r="R70" s="170"/>
-      <c r="S70" s="170"/>
-      <c r="T70" s="170"/>
-      <c r="U70" s="170"/>
-      <c r="V70" s="170"/>
-      <c r="W70" s="170"/>
-      <c r="X70" s="170"/>
-      <c r="Y70" s="170"/>
-      <c r="Z70" s="170"/>
-      <c r="AA70" s="170" t="e">
+      <c r="Q70" s="93"/>
+      <c r="R70" s="93"/>
+      <c r="S70" s="93"/>
+      <c r="T70" s="93"/>
+      <c r="U70" s="93"/>
+      <c r="V70" s="93"/>
+      <c r="W70" s="93"/>
+      <c r="X70" s="93"/>
+      <c r="Y70" s="93"/>
+      <c r="Z70" s="93"/>
+      <c r="AA70" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB70" s="170" t="e">
+      <c r="AB70" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71" s="170">
+      <c r="A71" s="93">
         <v>70</v>
       </c>
-      <c r="B71" s="170"/>
-      <c r="C71" s="170"/>
-      <c r="D71" s="170"/>
-      <c r="E71" s="170"/>
-      <c r="F71" s="170"/>
-      <c r="G71" s="170"/>
-      <c r="H71" s="170"/>
-      <c r="I71" s="170"/>
-      <c r="J71" s="170"/>
-      <c r="K71" s="170"/>
-      <c r="L71" s="170" t="e">
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M71" s="170"/>
-      <c r="N71" s="170">
+      <c r="M71" s="93"/>
+      <c r="N71" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9472,45 +9472,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="170"/>
-      <c r="R71" s="170"/>
-      <c r="S71" s="170"/>
-      <c r="T71" s="170"/>
-      <c r="U71" s="170"/>
-      <c r="V71" s="170"/>
-      <c r="W71" s="170"/>
-      <c r="X71" s="170"/>
-      <c r="Y71" s="170"/>
-      <c r="Z71" s="170"/>
-      <c r="AA71" s="170" t="e">
+      <c r="Q71" s="93"/>
+      <c r="R71" s="93"/>
+      <c r="S71" s="93"/>
+      <c r="T71" s="93"/>
+      <c r="U71" s="93"/>
+      <c r="V71" s="93"/>
+      <c r="W71" s="93"/>
+      <c r="X71" s="93"/>
+      <c r="Y71" s="93"/>
+      <c r="Z71" s="93"/>
+      <c r="AA71" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB71" s="170" t="e">
+      <c r="AB71" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" s="170">
+      <c r="A72" s="93">
         <v>71</v>
       </c>
-      <c r="B72" s="170"/>
-      <c r="C72" s="170"/>
-      <c r="D72" s="170"/>
-      <c r="E72" s="170"/>
-      <c r="F72" s="170"/>
-      <c r="G72" s="170"/>
-      <c r="H72" s="170"/>
-      <c r="I72" s="170"/>
-      <c r="J72" s="170"/>
-      <c r="K72" s="170"/>
-      <c r="L72" s="170" t="e">
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M72" s="170"/>
-      <c r="N72" s="170">
+      <c r="M72" s="93"/>
+      <c r="N72" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9521,45 +9521,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="170"/>
-      <c r="R72" s="170"/>
-      <c r="S72" s="170"/>
-      <c r="T72" s="170"/>
-      <c r="U72" s="170"/>
-      <c r="V72" s="170"/>
-      <c r="W72" s="170"/>
-      <c r="X72" s="170"/>
-      <c r="Y72" s="170"/>
-      <c r="Z72" s="170"/>
-      <c r="AA72" s="170" t="e">
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
+      <c r="S72" s="93"/>
+      <c r="T72" s="93"/>
+      <c r="U72" s="93"/>
+      <c r="V72" s="93"/>
+      <c r="W72" s="93"/>
+      <c r="X72" s="93"/>
+      <c r="Y72" s="93"/>
+      <c r="Z72" s="93"/>
+      <c r="AA72" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB72" s="170" t="e">
+      <c r="AB72" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" s="170">
+      <c r="A73" s="93">
         <v>72</v>
       </c>
-      <c r="B73" s="170"/>
-      <c r="C73" s="170"/>
-      <c r="D73" s="170"/>
-      <c r="E73" s="170"/>
-      <c r="F73" s="170"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="170"/>
-      <c r="I73" s="170"/>
-      <c r="J73" s="170"/>
-      <c r="K73" s="170"/>
-      <c r="L73" s="170" t="e">
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
+      <c r="J73" s="93"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M73" s="170"/>
-      <c r="N73" s="170">
+      <c r="M73" s="93"/>
+      <c r="N73" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9570,45 +9570,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="170"/>
-      <c r="R73" s="170"/>
-      <c r="S73" s="170"/>
-      <c r="T73" s="170"/>
-      <c r="U73" s="170"/>
-      <c r="V73" s="170"/>
-      <c r="W73" s="170"/>
-      <c r="X73" s="170"/>
-      <c r="Y73" s="170"/>
-      <c r="Z73" s="170"/>
-      <c r="AA73" s="170" t="e">
+      <c r="Q73" s="93"/>
+      <c r="R73" s="93"/>
+      <c r="S73" s="93"/>
+      <c r="T73" s="93"/>
+      <c r="U73" s="93"/>
+      <c r="V73" s="93"/>
+      <c r="W73" s="93"/>
+      <c r="X73" s="93"/>
+      <c r="Y73" s="93"/>
+      <c r="Z73" s="93"/>
+      <c r="AA73" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB73" s="170" t="e">
+      <c r="AB73" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74" s="170">
+      <c r="A74" s="93">
         <v>73</v>
       </c>
-      <c r="B74" s="170"/>
-      <c r="C74" s="170"/>
-      <c r="D74" s="170"/>
-      <c r="E74" s="170"/>
-      <c r="F74" s="170"/>
-      <c r="G74" s="170"/>
-      <c r="H74" s="170"/>
-      <c r="I74" s="170"/>
-      <c r="J74" s="170"/>
-      <c r="K74" s="170"/>
-      <c r="L74" s="170" t="e">
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="93"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="93"/>
+      <c r="L74" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M74" s="170"/>
-      <c r="N74" s="170">
+      <c r="M74" s="93"/>
+      <c r="N74" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9619,45 +9619,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="170"/>
-      <c r="R74" s="170"/>
-      <c r="S74" s="170"/>
-      <c r="T74" s="170"/>
-      <c r="U74" s="170"/>
-      <c r="V74" s="170"/>
-      <c r="W74" s="170"/>
-      <c r="X74" s="170"/>
-      <c r="Y74" s="170"/>
-      <c r="Z74" s="170"/>
-      <c r="AA74" s="170" t="e">
+      <c r="Q74" s="93"/>
+      <c r="R74" s="93"/>
+      <c r="S74" s="93"/>
+      <c r="T74" s="93"/>
+      <c r="U74" s="93"/>
+      <c r="V74" s="93"/>
+      <c r="W74" s="93"/>
+      <c r="X74" s="93"/>
+      <c r="Y74" s="93"/>
+      <c r="Z74" s="93"/>
+      <c r="AA74" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB74" s="170" t="e">
+      <c r="AB74" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75" s="170">
+      <c r="A75" s="93">
         <v>74</v>
       </c>
-      <c r="B75" s="170"/>
-      <c r="C75" s="170"/>
-      <c r="D75" s="170"/>
-      <c r="E75" s="170"/>
-      <c r="F75" s="170"/>
-      <c r="G75" s="170"/>
-      <c r="H75" s="170"/>
-      <c r="I75" s="170"/>
-      <c r="J75" s="170"/>
-      <c r="K75" s="170"/>
-      <c r="L75" s="170" t="e">
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="93"/>
+      <c r="I75" s="93"/>
+      <c r="J75" s="93"/>
+      <c r="K75" s="93"/>
+      <c r="L75" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M75" s="170"/>
-      <c r="N75" s="170">
+      <c r="M75" s="93"/>
+      <c r="N75" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9668,45 +9668,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="170"/>
-      <c r="R75" s="170"/>
-      <c r="S75" s="170"/>
-      <c r="T75" s="170"/>
-      <c r="U75" s="170"/>
-      <c r="V75" s="170"/>
-      <c r="W75" s="170"/>
-      <c r="X75" s="170"/>
-      <c r="Y75" s="170"/>
-      <c r="Z75" s="170"/>
-      <c r="AA75" s="170" t="e">
+      <c r="Q75" s="93"/>
+      <c r="R75" s="93"/>
+      <c r="S75" s="93"/>
+      <c r="T75" s="93"/>
+      <c r="U75" s="93"/>
+      <c r="V75" s="93"/>
+      <c r="W75" s="93"/>
+      <c r="X75" s="93"/>
+      <c r="Y75" s="93"/>
+      <c r="Z75" s="93"/>
+      <c r="AA75" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB75" s="170" t="e">
+      <c r="AB75" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76" s="170">
+      <c r="A76" s="93">
         <v>75</v>
       </c>
-      <c r="B76" s="170"/>
-      <c r="C76" s="170"/>
-      <c r="D76" s="170"/>
-      <c r="E76" s="170"/>
-      <c r="F76" s="170"/>
-      <c r="G76" s="170"/>
-      <c r="H76" s="170"/>
-      <c r="I76" s="170"/>
-      <c r="J76" s="170"/>
-      <c r="K76" s="170"/>
-      <c r="L76" s="170" t="e">
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="93"/>
+      <c r="J76" s="93"/>
+      <c r="K76" s="93"/>
+      <c r="L76" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M76" s="170"/>
-      <c r="N76" s="170">
+      <c r="M76" s="93"/>
+      <c r="N76" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9717,45 +9717,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="170"/>
-      <c r="R76" s="170"/>
-      <c r="S76" s="170"/>
-      <c r="T76" s="170"/>
-      <c r="U76" s="170"/>
-      <c r="V76" s="170"/>
-      <c r="W76" s="170"/>
-      <c r="X76" s="170"/>
-      <c r="Y76" s="170"/>
-      <c r="Z76" s="170"/>
-      <c r="AA76" s="170" t="e">
+      <c r="Q76" s="93"/>
+      <c r="R76" s="93"/>
+      <c r="S76" s="93"/>
+      <c r="T76" s="93"/>
+      <c r="U76" s="93"/>
+      <c r="V76" s="93"/>
+      <c r="W76" s="93"/>
+      <c r="X76" s="93"/>
+      <c r="Y76" s="93"/>
+      <c r="Z76" s="93"/>
+      <c r="AA76" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB76" s="170" t="e">
+      <c r="AB76" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77" s="170">
+      <c r="A77" s="93">
         <v>76</v>
       </c>
-      <c r="B77" s="170"/>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
-      <c r="E77" s="170"/>
-      <c r="F77" s="170"/>
-      <c r="G77" s="170"/>
-      <c r="H77" s="170"/>
-      <c r="I77" s="170"/>
-      <c r="J77" s="170"/>
-      <c r="K77" s="170"/>
-      <c r="L77" s="170" t="e">
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M77" s="170"/>
-      <c r="N77" s="170">
+      <c r="M77" s="93"/>
+      <c r="N77" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9766,45 +9766,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q77" s="170"/>
-      <c r="R77" s="170"/>
-      <c r="S77" s="170"/>
-      <c r="T77" s="170"/>
-      <c r="U77" s="170"/>
-      <c r="V77" s="170"/>
-      <c r="W77" s="170"/>
-      <c r="X77" s="170"/>
-      <c r="Y77" s="170"/>
-      <c r="Z77" s="170"/>
-      <c r="AA77" s="170" t="e">
+      <c r="Q77" s="93"/>
+      <c r="R77" s="93"/>
+      <c r="S77" s="93"/>
+      <c r="T77" s="93"/>
+      <c r="U77" s="93"/>
+      <c r="V77" s="93"/>
+      <c r="W77" s="93"/>
+      <c r="X77" s="93"/>
+      <c r="Y77" s="93"/>
+      <c r="Z77" s="93"/>
+      <c r="AA77" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB77" s="170" t="e">
+      <c r="AB77" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78" s="170">
+      <c r="A78" s="93">
         <v>77</v>
       </c>
-      <c r="B78" s="170"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="170"/>
-      <c r="I78" s="170"/>
-      <c r="J78" s="170"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="170" t="e">
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="93"/>
+      <c r="J78" s="93"/>
+      <c r="K78" s="93"/>
+      <c r="L78" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M78" s="170"/>
-      <c r="N78" s="170">
+      <c r="M78" s="93"/>
+      <c r="N78" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9815,45 +9815,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="170"/>
-      <c r="R78" s="170"/>
-      <c r="S78" s="170"/>
-      <c r="T78" s="170"/>
-      <c r="U78" s="170"/>
-      <c r="V78" s="170"/>
-      <c r="W78" s="170"/>
-      <c r="X78" s="170"/>
-      <c r="Y78" s="170"/>
-      <c r="Z78" s="170"/>
-      <c r="AA78" s="170" t="e">
+      <c r="Q78" s="93"/>
+      <c r="R78" s="93"/>
+      <c r="S78" s="93"/>
+      <c r="T78" s="93"/>
+      <c r="U78" s="93"/>
+      <c r="V78" s="93"/>
+      <c r="W78" s="93"/>
+      <c r="X78" s="93"/>
+      <c r="Y78" s="93"/>
+      <c r="Z78" s="93"/>
+      <c r="AA78" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB78" s="170" t="e">
+      <c r="AB78" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79" s="170">
+      <c r="A79" s="93">
         <v>78</v>
       </c>
-      <c r="B79" s="170"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="170"/>
-      <c r="I79" s="170"/>
-      <c r="J79" s="170"/>
-      <c r="K79" s="170"/>
-      <c r="L79" s="170" t="e">
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="93"/>
+      <c r="I79" s="93"/>
+      <c r="J79" s="93"/>
+      <c r="K79" s="93"/>
+      <c r="L79" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M79" s="170"/>
-      <c r="N79" s="170">
+      <c r="M79" s="93"/>
+      <c r="N79" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9864,45 +9864,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="170"/>
-      <c r="R79" s="170"/>
-      <c r="S79" s="170"/>
-      <c r="T79" s="170"/>
-      <c r="U79" s="170"/>
-      <c r="V79" s="170"/>
-      <c r="W79" s="170"/>
-      <c r="X79" s="170"/>
-      <c r="Y79" s="170"/>
-      <c r="Z79" s="170"/>
-      <c r="AA79" s="170" t="e">
+      <c r="Q79" s="93"/>
+      <c r="R79" s="93"/>
+      <c r="S79" s="93"/>
+      <c r="T79" s="93"/>
+      <c r="U79" s="93"/>
+      <c r="V79" s="93"/>
+      <c r="W79" s="93"/>
+      <c r="X79" s="93"/>
+      <c r="Y79" s="93"/>
+      <c r="Z79" s="93"/>
+      <c r="AA79" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB79" s="170" t="e">
+      <c r="AB79" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80" s="170">
+      <c r="A80" s="93">
         <v>79</v>
       </c>
-      <c r="B80" s="170"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170" t="e">
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
+      <c r="L80" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M80" s="170"/>
-      <c r="N80" s="170">
+      <c r="M80" s="93"/>
+      <c r="N80" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9913,45 +9913,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="170"/>
-      <c r="R80" s="170"/>
-      <c r="S80" s="170"/>
-      <c r="T80" s="170"/>
-      <c r="U80" s="170"/>
-      <c r="V80" s="170"/>
-      <c r="W80" s="170"/>
-      <c r="X80" s="170"/>
-      <c r="Y80" s="170"/>
-      <c r="Z80" s="170"/>
-      <c r="AA80" s="170" t="e">
+      <c r="Q80" s="93"/>
+      <c r="R80" s="93"/>
+      <c r="S80" s="93"/>
+      <c r="T80" s="93"/>
+      <c r="U80" s="93"/>
+      <c r="V80" s="93"/>
+      <c r="W80" s="93"/>
+      <c r="X80" s="93"/>
+      <c r="Y80" s="93"/>
+      <c r="Z80" s="93"/>
+      <c r="AA80" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB80" s="170" t="e">
+      <c r="AB80" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A81" s="170">
+      <c r="A81" s="93">
         <v>80</v>
       </c>
-      <c r="B81" s="170"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="170"/>
-      <c r="F81" s="170"/>
-      <c r="G81" s="170"/>
-      <c r="H81" s="170"/>
-      <c r="I81" s="170"/>
-      <c r="J81" s="170"/>
-      <c r="K81" s="170"/>
-      <c r="L81" s="170" t="e">
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="93"/>
+      <c r="L81" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M81" s="170"/>
-      <c r="N81" s="170">
+      <c r="M81" s="93"/>
+      <c r="N81" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9962,45 +9962,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="170"/>
-      <c r="R81" s="170"/>
-      <c r="S81" s="170"/>
-      <c r="T81" s="170"/>
-      <c r="U81" s="170"/>
-      <c r="V81" s="170"/>
-      <c r="W81" s="170"/>
-      <c r="X81" s="170"/>
-      <c r="Y81" s="170"/>
-      <c r="Z81" s="170"/>
-      <c r="AA81" s="170" t="e">
+      <c r="Q81" s="93"/>
+      <c r="R81" s="93"/>
+      <c r="S81" s="93"/>
+      <c r="T81" s="93"/>
+      <c r="U81" s="93"/>
+      <c r="V81" s="93"/>
+      <c r="W81" s="93"/>
+      <c r="X81" s="93"/>
+      <c r="Y81" s="93"/>
+      <c r="Z81" s="93"/>
+      <c r="AA81" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB81" s="170" t="e">
+      <c r="AB81" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A82" s="170">
+      <c r="A82" s="93">
         <v>81</v>
       </c>
-      <c r="B82" s="170"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="170"/>
-      <c r="E82" s="170"/>
-      <c r="F82" s="170"/>
-      <c r="G82" s="170"/>
-      <c r="H82" s="170"/>
-      <c r="I82" s="170"/>
-      <c r="J82" s="170"/>
-      <c r="K82" s="170"/>
-      <c r="L82" s="170" t="e">
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
+      <c r="I82" s="93"/>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M82" s="170"/>
-      <c r="N82" s="170">
+      <c r="M82" s="93"/>
+      <c r="N82" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10011,45 +10011,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="170"/>
-      <c r="R82" s="170"/>
-      <c r="S82" s="170"/>
-      <c r="T82" s="170"/>
-      <c r="U82" s="170"/>
-      <c r="V82" s="170"/>
-      <c r="W82" s="170"/>
-      <c r="X82" s="170"/>
-      <c r="Y82" s="170"/>
-      <c r="Z82" s="170"/>
-      <c r="AA82" s="170" t="e">
+      <c r="Q82" s="93"/>
+      <c r="R82" s="93"/>
+      <c r="S82" s="93"/>
+      <c r="T82" s="93"/>
+      <c r="U82" s="93"/>
+      <c r="V82" s="93"/>
+      <c r="W82" s="93"/>
+      <c r="X82" s="93"/>
+      <c r="Y82" s="93"/>
+      <c r="Z82" s="93"/>
+      <c r="AA82" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB82" s="170" t="e">
+      <c r="AB82" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A83" s="170">
+      <c r="A83" s="93">
         <v>82</v>
       </c>
-      <c r="B83" s="170"/>
-      <c r="C83" s="170"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="170"/>
-      <c r="F83" s="170"/>
-      <c r="G83" s="170"/>
-      <c r="H83" s="170"/>
-      <c r="I83" s="170"/>
-      <c r="J83" s="170"/>
-      <c r="K83" s="170"/>
-      <c r="L83" s="170" t="e">
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="93"/>
+      <c r="L83" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M83" s="170"/>
-      <c r="N83" s="170">
+      <c r="M83" s="93"/>
+      <c r="N83" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10060,45 +10060,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="170"/>
-      <c r="R83" s="170"/>
-      <c r="S83" s="170"/>
-      <c r="T83" s="170"/>
-      <c r="U83" s="170"/>
-      <c r="V83" s="170"/>
-      <c r="W83" s="170"/>
-      <c r="X83" s="170"/>
-      <c r="Y83" s="170"/>
-      <c r="Z83" s="170"/>
-      <c r="AA83" s="170" t="e">
+      <c r="Q83" s="93"/>
+      <c r="R83" s="93"/>
+      <c r="S83" s="93"/>
+      <c r="T83" s="93"/>
+      <c r="U83" s="93"/>
+      <c r="V83" s="93"/>
+      <c r="W83" s="93"/>
+      <c r="X83" s="93"/>
+      <c r="Y83" s="93"/>
+      <c r="Z83" s="93"/>
+      <c r="AA83" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB83" s="170" t="e">
+      <c r="AB83" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A84" s="170">
+      <c r="A84" s="93">
         <v>83</v>
       </c>
-      <c r="B84" s="170"/>
-      <c r="C84" s="170"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="170"/>
-      <c r="F84" s="170"/>
-      <c r="G84" s="170"/>
-      <c r="H84" s="170"/>
-      <c r="I84" s="170"/>
-      <c r="J84" s="170"/>
-      <c r="K84" s="170"/>
-      <c r="L84" s="170" t="e">
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="93"/>
+      <c r="I84" s="93"/>
+      <c r="J84" s="93"/>
+      <c r="K84" s="93"/>
+      <c r="L84" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M84" s="170"/>
-      <c r="N84" s="170">
+      <c r="M84" s="93"/>
+      <c r="N84" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10109,45 +10109,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q84" s="170"/>
-      <c r="R84" s="170"/>
-      <c r="S84" s="170"/>
-      <c r="T84" s="170"/>
-      <c r="U84" s="170"/>
-      <c r="V84" s="170"/>
-      <c r="W84" s="170"/>
-      <c r="X84" s="170"/>
-      <c r="Y84" s="170"/>
-      <c r="Z84" s="170"/>
-      <c r="AA84" s="170" t="e">
+      <c r="Q84" s="93"/>
+      <c r="R84" s="93"/>
+      <c r="S84" s="93"/>
+      <c r="T84" s="93"/>
+      <c r="U84" s="93"/>
+      <c r="V84" s="93"/>
+      <c r="W84" s="93"/>
+      <c r="X84" s="93"/>
+      <c r="Y84" s="93"/>
+      <c r="Z84" s="93"/>
+      <c r="AA84" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB84" s="170" t="e">
+      <c r="AB84" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A85" s="170">
+      <c r="A85" s="93">
         <v>84</v>
       </c>
-      <c r="B85" s="170"/>
-      <c r="C85" s="170"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="170"/>
-      <c r="F85" s="170"/>
-      <c r="G85" s="170"/>
-      <c r="H85" s="170"/>
-      <c r="I85" s="170"/>
-      <c r="J85" s="170"/>
-      <c r="K85" s="170"/>
-      <c r="L85" s="170" t="e">
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M85" s="170"/>
-      <c r="N85" s="170">
+      <c r="M85" s="93"/>
+      <c r="N85" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10158,45 +10158,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="170"/>
-      <c r="R85" s="170"/>
-      <c r="S85" s="170"/>
-      <c r="T85" s="170"/>
-      <c r="U85" s="170"/>
-      <c r="V85" s="170"/>
-      <c r="W85" s="170"/>
-      <c r="X85" s="170"/>
-      <c r="Y85" s="170"/>
-      <c r="Z85" s="170"/>
-      <c r="AA85" s="170" t="e">
+      <c r="Q85" s="93"/>
+      <c r="R85" s="93"/>
+      <c r="S85" s="93"/>
+      <c r="T85" s="93"/>
+      <c r="U85" s="93"/>
+      <c r="V85" s="93"/>
+      <c r="W85" s="93"/>
+      <c r="X85" s="93"/>
+      <c r="Y85" s="93"/>
+      <c r="Z85" s="93"/>
+      <c r="AA85" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB85" s="170" t="e">
+      <c r="AB85" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A86" s="170">
+      <c r="A86" s="93">
         <v>85</v>
       </c>
-      <c r="B86" s="170"/>
-      <c r="C86" s="170"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="170"/>
-      <c r="F86" s="170"/>
-      <c r="G86" s="170"/>
-      <c r="H86" s="170"/>
-      <c r="I86" s="170"/>
-      <c r="J86" s="170"/>
-      <c r="K86" s="170"/>
-      <c r="L86" s="170" t="e">
+      <c r="B86" s="93"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="93"/>
+      <c r="K86" s="93"/>
+      <c r="L86" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M86" s="170"/>
-      <c r="N86" s="170">
+      <c r="M86" s="93"/>
+      <c r="N86" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10207,45 +10207,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="170"/>
-      <c r="R86" s="170"/>
-      <c r="S86" s="170"/>
-      <c r="T86" s="170"/>
-      <c r="U86" s="170"/>
-      <c r="V86" s="170"/>
-      <c r="W86" s="170"/>
-      <c r="X86" s="170"/>
-      <c r="Y86" s="170"/>
-      <c r="Z86" s="170"/>
-      <c r="AA86" s="170" t="e">
+      <c r="Q86" s="93"/>
+      <c r="R86" s="93"/>
+      <c r="S86" s="93"/>
+      <c r="T86" s="93"/>
+      <c r="U86" s="93"/>
+      <c r="V86" s="93"/>
+      <c r="W86" s="93"/>
+      <c r="X86" s="93"/>
+      <c r="Y86" s="93"/>
+      <c r="Z86" s="93"/>
+      <c r="AA86" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB86" s="170" t="e">
+      <c r="AB86" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A87" s="170">
+      <c r="A87" s="93">
         <v>86</v>
       </c>
-      <c r="B87" s="170"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
-      <c r="G87" s="170"/>
-      <c r="H87" s="170"/>
-      <c r="I87" s="170"/>
-      <c r="J87" s="170"/>
-      <c r="K87" s="170"/>
-      <c r="L87" s="170" t="e">
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M87" s="170"/>
-      <c r="N87" s="170">
+      <c r="M87" s="93"/>
+      <c r="N87" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10256,45 +10256,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q87" s="170"/>
-      <c r="R87" s="170"/>
-      <c r="S87" s="170"/>
-      <c r="T87" s="170"/>
-      <c r="U87" s="170"/>
-      <c r="V87" s="170"/>
-      <c r="W87" s="170"/>
-      <c r="X87" s="170"/>
-      <c r="Y87" s="170"/>
-      <c r="Z87" s="170"/>
-      <c r="AA87" s="170" t="e">
+      <c r="Q87" s="93"/>
+      <c r="R87" s="93"/>
+      <c r="S87" s="93"/>
+      <c r="T87" s="93"/>
+      <c r="U87" s="93"/>
+      <c r="V87" s="93"/>
+      <c r="W87" s="93"/>
+      <c r="X87" s="93"/>
+      <c r="Y87" s="93"/>
+      <c r="Z87" s="93"/>
+      <c r="AA87" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB87" s="170" t="e">
+      <c r="AB87" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A88" s="170">
+      <c r="A88" s="93">
         <v>87</v>
       </c>
-      <c r="B88" s="170"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
-      <c r="G88" s="170"/>
-      <c r="H88" s="170"/>
-      <c r="I88" s="170"/>
-      <c r="J88" s="170"/>
-      <c r="K88" s="170"/>
-      <c r="L88" s="170" t="e">
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M88" s="170"/>
-      <c r="N88" s="170">
+      <c r="M88" s="93"/>
+      <c r="N88" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10305,45 +10305,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="170"/>
-      <c r="R88" s="170"/>
-      <c r="S88" s="170"/>
-      <c r="T88" s="170"/>
-      <c r="U88" s="170"/>
-      <c r="V88" s="170"/>
-      <c r="W88" s="170"/>
-      <c r="X88" s="170"/>
-      <c r="Y88" s="170"/>
-      <c r="Z88" s="170"/>
-      <c r="AA88" s="170" t="e">
+      <c r="Q88" s="93"/>
+      <c r="R88" s="93"/>
+      <c r="S88" s="93"/>
+      <c r="T88" s="93"/>
+      <c r="U88" s="93"/>
+      <c r="V88" s="93"/>
+      <c r="W88" s="93"/>
+      <c r="X88" s="93"/>
+      <c r="Y88" s="93"/>
+      <c r="Z88" s="93"/>
+      <c r="AA88" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB88" s="170" t="e">
+      <c r="AB88" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A89" s="170">
+      <c r="A89" s="93">
         <v>88</v>
       </c>
-      <c r="B89" s="170"/>
-      <c r="C89" s="170"/>
-      <c r="D89" s="170"/>
-      <c r="E89" s="170"/>
-      <c r="F89" s="170"/>
-      <c r="G89" s="170"/>
-      <c r="H89" s="170"/>
-      <c r="I89" s="170"/>
-      <c r="J89" s="170"/>
-      <c r="K89" s="170"/>
-      <c r="L89" s="170" t="e">
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="93"/>
+      <c r="J89" s="93"/>
+      <c r="K89" s="93"/>
+      <c r="L89" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M89" s="170"/>
-      <c r="N89" s="170">
+      <c r="M89" s="93"/>
+      <c r="N89" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10354,45 +10354,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="170"/>
-      <c r="R89" s="170"/>
-      <c r="S89" s="170"/>
-      <c r="T89" s="170"/>
-      <c r="U89" s="170"/>
-      <c r="V89" s="170"/>
-      <c r="W89" s="170"/>
-      <c r="X89" s="170"/>
-      <c r="Y89" s="170"/>
-      <c r="Z89" s="170"/>
-      <c r="AA89" s="170" t="e">
+      <c r="Q89" s="93"/>
+      <c r="R89" s="93"/>
+      <c r="S89" s="93"/>
+      <c r="T89" s="93"/>
+      <c r="U89" s="93"/>
+      <c r="V89" s="93"/>
+      <c r="W89" s="93"/>
+      <c r="X89" s="93"/>
+      <c r="Y89" s="93"/>
+      <c r="Z89" s="93"/>
+      <c r="AA89" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB89" s="170" t="e">
+      <c r="AB89" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A90" s="170">
+      <c r="A90" s="93">
         <v>89</v>
       </c>
-      <c r="B90" s="170"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="170"/>
-      <c r="E90" s="170"/>
-      <c r="F90" s="170"/>
-      <c r="G90" s="170"/>
-      <c r="H90" s="170"/>
-      <c r="I90" s="170"/>
-      <c r="J90" s="170"/>
-      <c r="K90" s="170"/>
-      <c r="L90" s="170" t="e">
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
+      <c r="I90" s="93"/>
+      <c r="J90" s="93"/>
+      <c r="K90" s="93"/>
+      <c r="L90" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M90" s="170"/>
-      <c r="N90" s="170">
+      <c r="M90" s="93"/>
+      <c r="N90" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10403,45 +10403,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="170"/>
-      <c r="R90" s="170"/>
-      <c r="S90" s="170"/>
-      <c r="T90" s="170"/>
-      <c r="U90" s="170"/>
-      <c r="V90" s="170"/>
-      <c r="W90" s="170"/>
-      <c r="X90" s="170"/>
-      <c r="Y90" s="170"/>
-      <c r="Z90" s="170"/>
-      <c r="AA90" s="170" t="e">
+      <c r="Q90" s="93"/>
+      <c r="R90" s="93"/>
+      <c r="S90" s="93"/>
+      <c r="T90" s="93"/>
+      <c r="U90" s="93"/>
+      <c r="V90" s="93"/>
+      <c r="W90" s="93"/>
+      <c r="X90" s="93"/>
+      <c r="Y90" s="93"/>
+      <c r="Z90" s="93"/>
+      <c r="AA90" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB90" s="170" t="e">
+      <c r="AB90" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A91" s="170">
+      <c r="A91" s="93">
         <v>90</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="170"/>
-      <c r="G91" s="170"/>
-      <c r="H91" s="170"/>
-      <c r="I91" s="170"/>
-      <c r="J91" s="170"/>
-      <c r="K91" s="170"/>
-      <c r="L91" s="170" t="e">
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="93"/>
+      <c r="K91" s="93"/>
+      <c r="L91" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M91" s="170"/>
-      <c r="N91" s="170">
+      <c r="M91" s="93"/>
+      <c r="N91" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10452,45 +10452,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="170"/>
-      <c r="R91" s="170"/>
-      <c r="S91" s="170"/>
-      <c r="T91" s="170"/>
-      <c r="U91" s="170"/>
-      <c r="V91" s="170"/>
-      <c r="W91" s="170"/>
-      <c r="X91" s="170"/>
-      <c r="Y91" s="170"/>
-      <c r="Z91" s="170"/>
-      <c r="AA91" s="170" t="e">
+      <c r="Q91" s="93"/>
+      <c r="R91" s="93"/>
+      <c r="S91" s="93"/>
+      <c r="T91" s="93"/>
+      <c r="U91" s="93"/>
+      <c r="V91" s="93"/>
+      <c r="W91" s="93"/>
+      <c r="X91" s="93"/>
+      <c r="Y91" s="93"/>
+      <c r="Z91" s="93"/>
+      <c r="AA91" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB91" s="170" t="e">
+      <c r="AB91" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A92" s="170">
+      <c r="A92" s="93">
         <v>91</v>
       </c>
-      <c r="B92" s="170"/>
-      <c r="C92" s="170"/>
-      <c r="D92" s="170"/>
-      <c r="E92" s="170"/>
-      <c r="F92" s="170"/>
-      <c r="G92" s="170"/>
-      <c r="H92" s="170"/>
-      <c r="I92" s="170"/>
-      <c r="J92" s="170"/>
-      <c r="K92" s="170"/>
-      <c r="L92" s="170" t="e">
+      <c r="B92" s="93"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="93"/>
+      <c r="I92" s="93"/>
+      <c r="J92" s="93"/>
+      <c r="K92" s="93"/>
+      <c r="L92" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M92" s="170"/>
-      <c r="N92" s="170">
+      <c r="M92" s="93"/>
+      <c r="N92" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10501,45 +10501,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="170"/>
-      <c r="R92" s="170"/>
-      <c r="S92" s="170"/>
-      <c r="T92" s="170"/>
-      <c r="U92" s="170"/>
-      <c r="V92" s="170"/>
-      <c r="W92" s="170"/>
-      <c r="X92" s="170"/>
-      <c r="Y92" s="170"/>
-      <c r="Z92" s="170"/>
-      <c r="AA92" s="170" t="e">
+      <c r="Q92" s="93"/>
+      <c r="R92" s="93"/>
+      <c r="S92" s="93"/>
+      <c r="T92" s="93"/>
+      <c r="U92" s="93"/>
+      <c r="V92" s="93"/>
+      <c r="W92" s="93"/>
+      <c r="X92" s="93"/>
+      <c r="Y92" s="93"/>
+      <c r="Z92" s="93"/>
+      <c r="AA92" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB92" s="170" t="e">
+      <c r="AB92" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A93" s="170">
+      <c r="A93" s="93">
         <v>92</v>
       </c>
-      <c r="B93" s="170"/>
-      <c r="C93" s="170"/>
-      <c r="D93" s="170"/>
-      <c r="E93" s="170"/>
-      <c r="F93" s="170"/>
-      <c r="G93" s="170"/>
-      <c r="H93" s="170"/>
-      <c r="I93" s="170"/>
-      <c r="J93" s="170"/>
-      <c r="K93" s="170"/>
-      <c r="L93" s="170" t="e">
+      <c r="B93" s="93"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="93"/>
+      <c r="I93" s="93"/>
+      <c r="J93" s="93"/>
+      <c r="K93" s="93"/>
+      <c r="L93" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M93" s="170"/>
-      <c r="N93" s="170">
+      <c r="M93" s="93"/>
+      <c r="N93" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10550,45 +10550,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="170"/>
-      <c r="R93" s="170"/>
-      <c r="S93" s="170"/>
-      <c r="T93" s="170"/>
-      <c r="U93" s="170"/>
-      <c r="V93" s="170"/>
-      <c r="W93" s="170"/>
-      <c r="X93" s="170"/>
-      <c r="Y93" s="170"/>
-      <c r="Z93" s="170"/>
-      <c r="AA93" s="170" t="e">
+      <c r="Q93" s="93"/>
+      <c r="R93" s="93"/>
+      <c r="S93" s="93"/>
+      <c r="T93" s="93"/>
+      <c r="U93" s="93"/>
+      <c r="V93" s="93"/>
+      <c r="W93" s="93"/>
+      <c r="X93" s="93"/>
+      <c r="Y93" s="93"/>
+      <c r="Z93" s="93"/>
+      <c r="AA93" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB93" s="170" t="e">
+      <c r="AB93" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A94" s="170">
+      <c r="A94" s="93">
         <v>93</v>
       </c>
-      <c r="B94" s="170"/>
-      <c r="C94" s="170"/>
-      <c r="D94" s="170"/>
-      <c r="E94" s="170"/>
-      <c r="F94" s="170"/>
-      <c r="G94" s="170"/>
-      <c r="H94" s="170"/>
-      <c r="I94" s="170"/>
-      <c r="J94" s="170"/>
-      <c r="K94" s="170"/>
-      <c r="L94" s="170" t="e">
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="93"/>
+      <c r="K94" s="93"/>
+      <c r="L94" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M94" s="170"/>
-      <c r="N94" s="170">
+      <c r="M94" s="93"/>
+      <c r="N94" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10599,45 +10599,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="170"/>
-      <c r="R94" s="170"/>
-      <c r="S94" s="170"/>
-      <c r="T94" s="170"/>
-      <c r="U94" s="170"/>
-      <c r="V94" s="170"/>
-      <c r="W94" s="170"/>
-      <c r="X94" s="170"/>
-      <c r="Y94" s="170"/>
-      <c r="Z94" s="170"/>
-      <c r="AA94" s="170" t="e">
+      <c r="Q94" s="93"/>
+      <c r="R94" s="93"/>
+      <c r="S94" s="93"/>
+      <c r="T94" s="93"/>
+      <c r="U94" s="93"/>
+      <c r="V94" s="93"/>
+      <c r="W94" s="93"/>
+      <c r="X94" s="93"/>
+      <c r="Y94" s="93"/>
+      <c r="Z94" s="93"/>
+      <c r="AA94" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB94" s="170" t="e">
+      <c r="AB94" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A95" s="170">
+      <c r="A95" s="93">
         <v>94</v>
       </c>
-      <c r="B95" s="170"/>
-      <c r="C95" s="170"/>
-      <c r="D95" s="170"/>
-      <c r="E95" s="170"/>
-      <c r="F95" s="170"/>
-      <c r="G95" s="170"/>
-      <c r="H95" s="170"/>
-      <c r="I95" s="170"/>
-      <c r="J95" s="170"/>
-      <c r="K95" s="170"/>
-      <c r="L95" s="170" t="e">
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="93"/>
+      <c r="I95" s="93"/>
+      <c r="J95" s="93"/>
+      <c r="K95" s="93"/>
+      <c r="L95" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M95" s="170"/>
-      <c r="N95" s="170">
+      <c r="M95" s="93"/>
+      <c r="N95" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10648,45 +10648,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="170"/>
-      <c r="R95" s="170"/>
-      <c r="S95" s="170"/>
-      <c r="T95" s="170"/>
-      <c r="U95" s="170"/>
-      <c r="V95" s="170"/>
-      <c r="W95" s="170"/>
-      <c r="X95" s="170"/>
-      <c r="Y95" s="170"/>
-      <c r="Z95" s="170"/>
-      <c r="AA95" s="170" t="e">
+      <c r="Q95" s="93"/>
+      <c r="R95" s="93"/>
+      <c r="S95" s="93"/>
+      <c r="T95" s="93"/>
+      <c r="U95" s="93"/>
+      <c r="V95" s="93"/>
+      <c r="W95" s="93"/>
+      <c r="X95" s="93"/>
+      <c r="Y95" s="93"/>
+      <c r="Z95" s="93"/>
+      <c r="AA95" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB95" s="170" t="e">
+      <c r="AB95" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A96" s="170">
+      <c r="A96" s="93">
         <v>95</v>
       </c>
-      <c r="B96" s="170"/>
-      <c r="C96" s="170"/>
-      <c r="D96" s="170"/>
-      <c r="E96" s="170"/>
-      <c r="F96" s="170"/>
-      <c r="G96" s="170"/>
-      <c r="H96" s="170"/>
-      <c r="I96" s="170"/>
-      <c r="J96" s="170"/>
-      <c r="K96" s="170"/>
-      <c r="L96" s="170" t="e">
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="93"/>
+      <c r="I96" s="93"/>
+      <c r="J96" s="93"/>
+      <c r="K96" s="93"/>
+      <c r="L96" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M96" s="170"/>
-      <c r="N96" s="170">
+      <c r="M96" s="93"/>
+      <c r="N96" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10697,45 +10697,45 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q96" s="170"/>
-      <c r="R96" s="170"/>
-      <c r="S96" s="170"/>
-      <c r="T96" s="170"/>
-      <c r="U96" s="170"/>
-      <c r="V96" s="170"/>
-      <c r="W96" s="170"/>
-      <c r="X96" s="170"/>
-      <c r="Y96" s="170"/>
-      <c r="Z96" s="170"/>
-      <c r="AA96" s="170" t="e">
+      <c r="Q96" s="93"/>
+      <c r="R96" s="93"/>
+      <c r="S96" s="93"/>
+      <c r="T96" s="93"/>
+      <c r="U96" s="93"/>
+      <c r="V96" s="93"/>
+      <c r="W96" s="93"/>
+      <c r="X96" s="93"/>
+      <c r="Y96" s="93"/>
+      <c r="Z96" s="93"/>
+      <c r="AA96" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB96" s="170" t="e">
+      <c r="AB96" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A97" s="170">
+      <c r="A97" s="93">
         <v>96</v>
       </c>
-      <c r="B97" s="170"/>
-      <c r="C97" s="170"/>
-      <c r="D97" s="170"/>
-      <c r="E97" s="170"/>
-      <c r="F97" s="170"/>
-      <c r="G97" s="170"/>
-      <c r="H97" s="170"/>
-      <c r="I97" s="170"/>
-      <c r="J97" s="170"/>
-      <c r="K97" s="170"/>
-      <c r="L97" s="170" t="e">
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M97" s="170"/>
-      <c r="N97" s="170">
+      <c r="M97" s="93"/>
+      <c r="N97" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10746,21 +10746,21 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q97" s="170"/>
-      <c r="R97" s="170"/>
-      <c r="S97" s="170"/>
-      <c r="T97" s="170"/>
-      <c r="U97" s="170"/>
-      <c r="V97" s="170"/>
-      <c r="W97" s="170"/>
-      <c r="X97" s="170"/>
-      <c r="Y97" s="170"/>
-      <c r="Z97" s="170"/>
-      <c r="AA97" s="170" t="e">
+      <c r="Q97" s="93"/>
+      <c r="R97" s="93"/>
+      <c r="S97" s="93"/>
+      <c r="T97" s="93"/>
+      <c r="U97" s="93"/>
+      <c r="V97" s="93"/>
+      <c r="W97" s="93"/>
+      <c r="X97" s="93"/>
+      <c r="Y97" s="93"/>
+      <c r="Z97" s="93"/>
+      <c r="AA97" s="93" t="e">
         <f>+MAX(#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB97" s="170" t="e">
+      <c r="AB97" s="93" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
@@ -10851,244 +10851,244 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8"/>
-      <c r="C1" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="C1" s="162" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="O2" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
     </row>
     <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
     </row>
     <row r="4" spans="1:37" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+    </row>
+    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-    </row>
-    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="AK5" s="11"/>
+    </row>
+    <row r="6" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="AK5" s="11"/>
-    </row>
-    <row r="6" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
       <c r="K6" s="9" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="10">
         <v>1</v>
       </c>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
       <c r="AK6" s="11"/>
     </row>
     <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="165" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="170" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="171"/>
+      <c r="L7" s="10"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="AK7" s="11"/>
+    </row>
+    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="10"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="AK7" s="11"/>
-    </row>
-    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
       <c r="K8" s="52"/>
       <c r="L8" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
       <c r="AK8" s="11"/>
     </row>
     <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
       <c r="K9" s="55"/>
       <c r="L9" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
+        <v>116</v>
+      </c>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
     </row>
     <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
       <c r="K10" s="55"/>
       <c r="L10" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
+        <v>164</v>
+      </c>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
     </row>
     <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
       <c r="K11" s="55"/>
       <c r="L11" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="M11" s="59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="60"/>
       <c r="F12" s="12" t="b">
         <f>MOD(E12,8)=0</f>
@@ -11105,12 +11105,12 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="114"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="61">
         <v>13</v>
       </c>
@@ -11129,22 +11129,22 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="117"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="156"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -12226,7 +12226,7 @@
     </row>
     <row r="34" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34"/>
       <c r="C34" s="17">
@@ -12818,22 +12818,22 @@
     </row>
     <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="120"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="158"/>
+      <c r="N43" s="158"/>
+      <c r="O43" s="159"/>
     </row>
     <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
@@ -12844,7 +12844,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="N44" s="121" t="str">
+      <c r="N44" s="160" t="str">
         <f>IF(M9="No","Skip this part",IF($M$9=$M$10,"Skip this only for low Input samples", " "))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -12865,7 +12865,7 @@
       <c r="E45" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="122"/>
+      <c r="N45" s="161"/>
       <c r="O45" s="21"/>
       <c r="Q45" s="6"/>
     </row>
@@ -12881,7 +12881,7 @@
       <c r="E46" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N46" s="122"/>
+      <c r="N46" s="161"/>
       <c r="O46" s="21"/>
     </row>
     <row r="47" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12897,7 +12897,7 @@
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="122"/>
+      <c r="N47" s="161"/>
       <c r="O47" s="21"/>
     </row>
     <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
       <c r="F48" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="N48" s="122"/>
+      <c r="N48" s="161"/>
       <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12926,7 +12926,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="N49" s="122"/>
+      <c r="N49" s="161"/>
       <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12949,17 +12949,17 @@
         <f>IF(ISNUMBER($E$13),CONCATENATE(" Volume for ",$E$13," samples"),CONCATENATE(" Volume for ",$E$12," samples"))</f>
         <v xml:space="preserve"> Volume for 13 samples</v>
       </c>
-      <c r="I51" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="J51" s="105"/>
+      <c r="I51" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" s="143"/>
       <c r="K51" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="106"/>
+      <c r="L51" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="M51" s="144"/>
       <c r="N51" s="66"/>
     </row>
     <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12985,11 +12985,11 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "5","")</f>
         <v/>
       </c>
-      <c r="L52" s="124" t="str">
+      <c r="L52" s="127" t="str">
         <f>IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K52*$E$13*1.1,""),K52*$E$12*1.1)</f>
         <v/>
       </c>
-      <c r="M52" s="125"/>
+      <c r="M52" s="128"/>
       <c r="N52" s="69" t="s">
         <v>49</v>
       </c>
@@ -13017,11 +13017,11 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "9.5","")</f>
         <v/>
       </c>
-      <c r="L53" s="124" t="str">
+      <c r="L53" s="127" t="str">
         <f t="shared" ref="L53:L54" si="0">IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K53*$E$13*1.1,""),K53*$E$12*1.1)</f>
         <v/>
       </c>
-      <c r="M53" s="125"/>
+      <c r="M53" s="128"/>
       <c r="N53" s="69" t="s">
         <v>49</v>
       </c>
@@ -13050,11 +13050,11 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "0.5","")</f>
         <v/>
       </c>
-      <c r="L54" s="124" t="str">
+      <c r="L54" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M54" s="125"/>
+      <c r="M54" s="128"/>
       <c r="N54" s="72" t="s">
         <v>49</v>
       </c>
@@ -13072,11 +13072,11 @@
         <f>SUM(K52:K54)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="126">
+      <c r="L55" s="129">
         <f>SUM(L52:L54)</f>
         <v>0</v>
       </c>
-      <c r="M55" s="127"/>
+      <c r="M55" s="130"/>
       <c r="N55" s="75" t="s">
         <v>49</v>
       </c>
@@ -13112,22 +13112,22 @@
     </row>
     <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="130"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="133"/>
     </row>
     <row r="60" spans="1:15" s="6" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37"/>
@@ -13208,22 +13208,22 @@
     </row>
     <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="133"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="135"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="135"/>
+      <c r="J66" s="135"/>
+      <c r="K66" s="135"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
+      <c r="N66" s="135"/>
+      <c r="O66" s="136"/>
     </row>
     <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
@@ -13330,11 +13330,11 @@
       <c r="F76" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I76" s="134" t="s">
+      <c r="I76" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="134"/>
-      <c r="K76" s="134"/>
+      <c r="J76" s="137"/>
+      <c r="K76" s="137"/>
     </row>
     <row r="77" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="25" t="s">
@@ -13374,167 +13374,167 @@
         <v>48</v>
       </c>
       <c r="D79" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="P79" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="P79" s="135" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q79" s="135"/>
+      <c r="Q79" s="138"/>
     </row>
     <row r="80" spans="1:21" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
-      <c r="B80" s="136" t="s">
+      <c r="B80" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="140"/>
+      <c r="N80" s="140"/>
+      <c r="O80" s="141"/>
+      <c r="P80" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="137"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="137"/>
-      <c r="G80" s="137"/>
-      <c r="H80" s="137"/>
-      <c r="I80" s="137"/>
-      <c r="J80" s="137"/>
-      <c r="K80" s="137"/>
-      <c r="L80" s="137"/>
-      <c r="M80" s="137"/>
-      <c r="N80" s="137"/>
-      <c r="O80" s="138"/>
-      <c r="P80" s="123" t="s">
+      <c r="Q80" s="118"/>
+      <c r="R80" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="Q80" s="123"/>
-      <c r="R80" s="123" t="s">
+      <c r="S80" s="118"/>
+      <c r="T80" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="S80" s="123"/>
-      <c r="T80" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="U80" s="123"/>
+      <c r="U80" s="118"/>
     </row>
     <row r="81" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P81" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="P81" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="Q81" s="139"/>
-      <c r="R81" s="139">
+      <c r="Q81" s="117"/>
+      <c r="R81" s="117">
         <v>7</v>
       </c>
-      <c r="S81" s="139"/>
-      <c r="T81" s="123"/>
-      <c r="U81" s="123"/>
+      <c r="S81" s="117"/>
+      <c r="T81" s="118"/>
+      <c r="U81" s="118"/>
     </row>
     <row r="82" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
-      <c r="B82" s="140" t="s">
+      <c r="B82" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="141"/>
-      <c r="G82" s="141"/>
-      <c r="H82" s="141"/>
-      <c r="I82" s="141"/>
-      <c r="J82" s="141"/>
-      <c r="K82" s="141"/>
-      <c r="L82" s="141"/>
-      <c r="M82" s="141"/>
-      <c r="N82" s="141"/>
-      <c r="O82" s="142"/>
-      <c r="P82" s="139" t="s">
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="125"/>
+      <c r="K82" s="125"/>
+      <c r="L82" s="125"/>
+      <c r="M82" s="125"/>
+      <c r="N82" s="125"/>
+      <c r="O82" s="126"/>
+      <c r="P82" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="Q82" s="139"/>
-      <c r="R82" s="139">
+      <c r="Q82" s="117"/>
+      <c r="R82" s="117">
         <v>1</v>
       </c>
-      <c r="S82" s="139"/>
-      <c r="T82" s="123"/>
-      <c r="U82" s="123"/>
+      <c r="S82" s="117"/>
+      <c r="T82" s="118"/>
+      <c r="U82" s="118"/>
     </row>
     <row r="83" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L83" s="40" t="s">
         <v>62</v>
       </c>
       <c r="M83" s="41"/>
-      <c r="P83" s="139" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q83" s="139"/>
-      <c r="R83" s="139">
-        <v>5</v>
-      </c>
-      <c r="S83" s="139"/>
-      <c r="T83" s="123"/>
-      <c r="U83" s="123"/>
+      <c r="P83" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q83" s="117"/>
+      <c r="R83" s="117">
+        <v>5</v>
+      </c>
+      <c r="S83" s="117"/>
+      <c r="T83" s="118"/>
+      <c r="U83" s="118"/>
     </row>
     <row r="84" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
-      <c r="B84" s="143" t="s">
+      <c r="B84" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="144"/>
-      <c r="D84" s="144"/>
-      <c r="E84" s="144"/>
-      <c r="F84" s="144"/>
-      <c r="G84" s="144"/>
-      <c r="H84" s="144"/>
-      <c r="I84" s="144"/>
-      <c r="J84" s="144"/>
-      <c r="K84" s="144"/>
-      <c r="L84" s="144"/>
-      <c r="M84" s="144"/>
-      <c r="N84" s="144"/>
-      <c r="O84" s="145"/>
-      <c r="P84" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q84" s="139"/>
-      <c r="R84" s="139">
-        <v>5</v>
-      </c>
-      <c r="S84" s="139"/>
-      <c r="T84" s="123"/>
-      <c r="U84" s="123"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="121"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="121"/>
+      <c r="L84" s="121"/>
+      <c r="M84" s="121"/>
+      <c r="N84" s="121"/>
+      <c r="O84" s="122"/>
+      <c r="P84" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q84" s="117"/>
+      <c r="R84" s="117">
+        <v>5</v>
+      </c>
+      <c r="S84" s="117"/>
+      <c r="T84" s="118"/>
+      <c r="U84" s="118"/>
     </row>
     <row r="85" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
-      <c r="B85" s="166" t="str">
+      <c r="B85" s="95" t="str">
         <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E12*(D88+D89)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G12+1)*(D88+D89)*1.1)," µL of P into first ",H12," wells and ",FIXED((G12)*(D88+D89)*1.1)," µL into the other wells of MM plate column 6")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E13*(D88+D89)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G13+1)*(D88+D89)*1.1)," µL of P into first ",H13," wells and ",FIXED((G13)*(D88+D89)*1.1)," µL into the other wells of MM plate column 6")) )</f>
         <v>Prepare Mastermix (P) according to the following table and pipet 8.80 µL of P into first 1 wells and 4.40 µL into the other wells of MM plate column 6</v>
       </c>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="167"/>
-      <c r="G85" s="167"/>
-      <c r="H85" s="167"/>
-      <c r="I85" s="167"/>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167"/>
-      <c r="L85" s="167"/>
-      <c r="M85" s="167"/>
-      <c r="N85" s="167"/>
-      <c r="O85" s="168"/>
-      <c r="P85" s="147" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q85" s="147"/>
-      <c r="R85" s="139">
+      <c r="C85" s="96"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
+      <c r="J85" s="96"/>
+      <c r="K85" s="96"/>
+      <c r="L85" s="96"/>
+      <c r="M85" s="96"/>
+      <c r="N85" s="96"/>
+      <c r="O85" s="97"/>
+      <c r="P85" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q85" s="119"/>
+      <c r="R85" s="117">
         <v>0.03</v>
       </c>
-      <c r="S85" s="139"/>
-      <c r="T85" s="123"/>
-      <c r="U85" s="123"/>
+      <c r="S85" s="117"/>
+      <c r="T85" s="118"/>
+      <c r="U85" s="118"/>
     </row>
     <row r="86" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
@@ -13542,16 +13542,16 @@
       <c r="E86" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P86" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q86" s="139"/>
-      <c r="R86" s="139">
+      <c r="P86" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q86" s="117"/>
+      <c r="R86" s="117">
         <v>15.27</v>
       </c>
-      <c r="S86" s="139"/>
-      <c r="T86" s="123"/>
-      <c r="U86" s="123"/>
+      <c r="S86" s="117"/>
+      <c r="T86" s="118"/>
+      <c r="U86" s="118"/>
     </row>
     <row r="87" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
@@ -13565,18 +13565,18 @@
       <c r="F87" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="P87" s="139" t="s">
+      <c r="P87" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="Q87" s="139"/>
-      <c r="R87" s="139">
+      <c r="Q87" s="117"/>
+      <c r="R87" s="117">
         <v>1.7</v>
       </c>
-      <c r="S87" s="139"/>
-      <c r="T87" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="U87" s="123"/>
+      <c r="S87" s="117"/>
+      <c r="T87" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="U87" s="118"/>
     </row>
     <row r="88" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
@@ -13593,16 +13593,16 @@
       <c r="F88" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="P88" s="139" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q88" s="139"/>
-      <c r="R88" s="139">
+      <c r="P88" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q88" s="117"/>
+      <c r="R88" s="117">
         <v>33.299999999999997</v>
       </c>
-      <c r="S88" s="139"/>
-      <c r="T88" s="123"/>
-      <c r="U88" s="123"/>
+      <c r="S88" s="117"/>
+      <c r="T88" s="118"/>
+      <c r="U88" s="118"/>
     </row>
     <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
@@ -14129,7 +14129,7 @@
         <v>58</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14137,7 +14137,7 @@
       <c r="F103" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="G103" s="149" t="str">
+      <c r="G103" s="108" t="str">
         <f>IF(M83&gt;0,CONCATENATE(M83," cycles"),"___cycles")</f>
         <v>___cycles</v>
       </c>
@@ -14145,21 +14145,21 @@
     <row r="104" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="F104" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="G104" s="150"/>
+        <v>138</v>
+      </c>
+      <c r="G104" s="109"/>
     </row>
     <row r="105" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="F105" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="G105" s="151"/>
+      <c r="G105" s="110"/>
     </row>
     <row r="106" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="F106" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14169,49 +14169,49 @@
     </row>
     <row r="108" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
-      <c r="B108" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" s="153"/>
-      <c r="D108" s="153"/>
-      <c r="E108" s="153"/>
-      <c r="F108" s="153"/>
-      <c r="G108" s="153"/>
-      <c r="H108" s="153"/>
-      <c r="I108" s="153"/>
-      <c r="J108" s="153"/>
-      <c r="K108" s="153"/>
-      <c r="L108" s="153"/>
-      <c r="M108" s="153"/>
-      <c r="N108" s="153"/>
-      <c r="O108" s="154"/>
+      <c r="B108" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="112"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
+      <c r="F108" s="112"/>
+      <c r="G108" s="112"/>
+      <c r="H108" s="112"/>
+      <c r="I108" s="112"/>
+      <c r="J108" s="112"/>
+      <c r="K108" s="112"/>
+      <c r="L108" s="112"/>
+      <c r="M108" s="112"/>
+      <c r="N108" s="112"/>
+      <c r="O108" s="113"/>
     </row>
     <row r="109" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F109" s="36"/>
       <c r="K109" s="85"/>
     </row>
     <row r="110" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="86"/>
-      <c r="B110" s="155" t="s">
+      <c r="B110" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C110" s="156"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="156"/>
-      <c r="F110" s="156"/>
-      <c r="G110" s="156"/>
-      <c r="H110" s="156"/>
-      <c r="I110" s="156"/>
-      <c r="J110" s="156"/>
-      <c r="K110" s="156"/>
-      <c r="L110" s="156"/>
-      <c r="M110" s="156"/>
-      <c r="N110" s="156"/>
-      <c r="O110" s="157"/>
+      <c r="C110" s="115"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="115"/>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="115"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
+      <c r="L110" s="115"/>
+      <c r="M110" s="115"/>
+      <c r="N110" s="115"/>
+      <c r="O110" s="116"/>
     </row>
     <row r="111" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
@@ -14432,7 +14432,7 @@
     <row r="121" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="37"/>
       <c r="B121" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C121" s="6"/>
       <c r="E121" s="92"/>
@@ -14440,7 +14440,7 @@
     <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="37"/>
       <c r="B122" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -14450,236 +14450,320 @@
       <c r="A123" s="35"/>
       <c r="B123" s="6"/>
       <c r="C123" s="91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" s="91"/>
       <c r="E123" s="91"/>
       <c r="F123" s="91"/>
       <c r="G123" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="35"/>
       <c r="B124" s="6"/>
       <c r="C124" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="91"/>
       <c r="F124" s="91"/>
       <c r="G124" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="35"/>
-      <c r="C125" s="158" t="s">
+      <c r="C125" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" s="101"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="101"/>
+      <c r="G125" s="101"/>
+      <c r="H125" s="101"/>
+      <c r="I125" s="101"/>
+      <c r="J125" s="101"/>
+      <c r="K125" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="D125" s="158"/>
-      <c r="E125" s="158"/>
-      <c r="F125" s="158"/>
-      <c r="G125" s="158"/>
-      <c r="H125" s="158"/>
-      <c r="I125" s="158"/>
-      <c r="J125" s="158"/>
-      <c r="K125" s="148" t="s">
-        <v>150</v>
-      </c>
-      <c r="L125" s="148"/>
+      <c r="L125" s="102"/>
     </row>
     <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="35"/>
-      <c r="C126" s="158" t="s">
+      <c r="C126" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" s="101"/>
+      <c r="E126" s="101"/>
+      <c r="F126" s="101"/>
+      <c r="G126" s="101"/>
+      <c r="H126" s="101"/>
+      <c r="I126" s="101"/>
+      <c r="J126" s="101"/>
+      <c r="K126" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="D126" s="158"/>
-      <c r="E126" s="158"/>
-      <c r="F126" s="158"/>
-      <c r="G126" s="158"/>
-      <c r="H126" s="158"/>
-      <c r="I126" s="158"/>
-      <c r="J126" s="158"/>
-      <c r="K126" s="148" t="s">
-        <v>152</v>
-      </c>
-      <c r="L126" s="148"/>
+      <c r="L126" s="102"/>
     </row>
     <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="35"/>
-      <c r="C127" s="158" t="s">
+      <c r="C127" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" s="101"/>
+      <c r="E127" s="101"/>
+      <c r="F127" s="101"/>
+      <c r="G127" s="101"/>
+      <c r="H127" s="101"/>
+      <c r="I127" s="101"/>
+      <c r="J127" s="101"/>
+      <c r="K127" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D127" s="158"/>
-      <c r="E127" s="158"/>
-      <c r="F127" s="158"/>
-      <c r="G127" s="158"/>
-      <c r="H127" s="158"/>
-      <c r="I127" s="158"/>
-      <c r="J127" s="158"/>
-      <c r="K127" s="148" t="s">
-        <v>154</v>
-      </c>
-      <c r="L127" s="148"/>
+      <c r="L127" s="102"/>
     </row>
     <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="35"/>
-      <c r="C128" s="158" t="s">
+      <c r="C128" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" s="101"/>
+      <c r="E128" s="101"/>
+      <c r="F128" s="101"/>
+      <c r="G128" s="101"/>
+      <c r="H128" s="101"/>
+      <c r="I128" s="101"/>
+      <c r="J128" s="101"/>
+      <c r="K128" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="D128" s="158"/>
-      <c r="E128" s="158"/>
-      <c r="F128" s="158"/>
-      <c r="G128" s="158"/>
-      <c r="H128" s="158"/>
-      <c r="I128" s="158"/>
-      <c r="J128" s="158"/>
-      <c r="K128" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="L128" s="148"/>
+      <c r="L128" s="102"/>
     </row>
     <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="35"/>
-      <c r="C129" s="158" t="s">
+      <c r="C129" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="101"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="101"/>
+      <c r="I129" s="101"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D129" s="158"/>
-      <c r="E129" s="158"/>
-      <c r="F129" s="158"/>
-      <c r="G129" s="158"/>
-      <c r="H129" s="158"/>
-      <c r="I129" s="158"/>
-      <c r="J129" s="158"/>
-      <c r="K129" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="L129" s="148"/>
+      <c r="L129" s="102"/>
     </row>
     <row r="130" spans="1:12" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="35"/>
-      <c r="C130" s="158" t="s">
+      <c r="C130" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" s="101"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
+      <c r="I130" s="101"/>
+      <c r="J130" s="101"/>
+      <c r="K130" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D130" s="158"/>
-      <c r="E130" s="158"/>
-      <c r="F130" s="158"/>
-      <c r="G130" s="158"/>
-      <c r="H130" s="158"/>
-      <c r="I130" s="158"/>
-      <c r="J130" s="158"/>
-      <c r="K130" s="148" t="s">
+      <c r="L130" s="102"/>
+    </row>
+    <row r="133" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="103"/>
+      <c r="E133" s="103"/>
+      <c r="F133" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="G133" s="99"/>
+      <c r="H133" s="99"/>
+      <c r="I133" s="100"/>
+    </row>
+    <row r="134" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" s="104"/>
+      <c r="E134" s="104"/>
+      <c r="F134" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" s="99"/>
+      <c r="H134" s="99"/>
+      <c r="I134" s="100"/>
+    </row>
+    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="104"/>
+      <c r="E135" s="104"/>
+      <c r="F135" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="G135" s="99"/>
+      <c r="H135" s="99"/>
+      <c r="I135" s="100"/>
+    </row>
+    <row r="136" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" s="99"/>
+      <c r="E136" s="100"/>
+      <c r="F136" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="L130" s="148"/>
-    </row>
-    <row r="133" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="D133" s="169"/>
-      <c r="E133" s="169"/>
-      <c r="F133" s="159" t="s">
-        <v>72</v>
-      </c>
-      <c r="G133" s="160"/>
-      <c r="H133" s="160"/>
-      <c r="I133" s="161"/>
-    </row>
-    <row r="134" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="165" t="s">
-        <v>73</v>
-      </c>
-      <c r="D134" s="165"/>
-      <c r="E134" s="165"/>
-      <c r="F134" s="159" t="s">
-        <v>69</v>
-      </c>
-      <c r="G134" s="160"/>
-      <c r="H134" s="160"/>
-      <c r="I134" s="161"/>
-    </row>
-    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="165" t="s">
-        <v>74</v>
-      </c>
-      <c r="D135" s="165"/>
-      <c r="E135" s="165"/>
-      <c r="F135" s="159" t="s">
-        <v>70</v>
-      </c>
-      <c r="G135" s="160"/>
-      <c r="H135" s="160"/>
-      <c r="I135" s="161"/>
-    </row>
-    <row r="136" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="159" t="s">
-        <v>75</v>
-      </c>
-      <c r="D136" s="160"/>
-      <c r="E136" s="161"/>
-      <c r="F136" s="159" t="s">
+      <c r="G136" s="99"/>
+      <c r="H136" s="99"/>
+      <c r="I136" s="100"/>
+    </row>
+    <row r="137" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="99"/>
+      <c r="E137" s="100"/>
+      <c r="F137" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="99"/>
+      <c r="H137" s="99"/>
+      <c r="I137" s="100"/>
+    </row>
+    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="99"/>
+      <c r="E138" s="100"/>
+      <c r="F138" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="G136" s="160"/>
-      <c r="H136" s="160"/>
-      <c r="I136" s="161"/>
-    </row>
-    <row r="137" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="160"/>
-      <c r="E137" s="161"/>
-      <c r="F137" s="159" t="s">
-        <v>64</v>
-      </c>
-      <c r="G137" s="160"/>
-      <c r="H137" s="160"/>
-      <c r="I137" s="161"/>
-    </row>
-    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="D138" s="160"/>
-      <c r="E138" s="161"/>
-      <c r="F138" s="159" t="s">
+      <c r="G138" s="99"/>
+      <c r="H138" s="99"/>
+      <c r="I138" s="100"/>
+    </row>
+    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="99"/>
+      <c r="E139" s="100"/>
+      <c r="F139" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G138" s="160"/>
-      <c r="H138" s="160"/>
-      <c r="I138" s="161"/>
-    </row>
-    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="159" t="s">
-        <v>79</v>
-      </c>
-      <c r="D139" s="160"/>
-      <c r="E139" s="161"/>
-      <c r="F139" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="G139" s="160"/>
-      <c r="H139" s="160"/>
-      <c r="I139" s="161"/>
+      <c r="G139" s="99"/>
+      <c r="H139" s="99"/>
+      <c r="I139" s="100"/>
     </row>
     <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="159" t="s">
+      <c r="C140" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="D140" s="160"/>
-      <c r="E140" s="161"/>
-      <c r="F140" s="162">
+      <c r="D140" s="99"/>
+      <c r="E140" s="100"/>
+      <c r="F140" s="105">
         <v>20240716</v>
       </c>
-      <c r="G140" s="163"/>
-      <c r="H140" s="163"/>
-      <c r="I140" s="164"/>
+      <c r="G140" s="106"/>
+      <c r="H140" s="106"/>
+      <c r="I140" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="N44:N49"/>
+    <mergeCell ref="O2:R10"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B59:O59"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="B84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="B108:O108"/>
+    <mergeCell ref="B110:O110"/>
+    <mergeCell ref="C125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="F137:I137"/>
     <mergeCell ref="B85:O85"/>
     <mergeCell ref="C138:E138"/>
     <mergeCell ref="F138:I138"/>
@@ -14696,123 +14780,39 @@
     <mergeCell ref="C128:J128"/>
     <mergeCell ref="K128:L128"/>
     <mergeCell ref="C129:J129"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="B108:O108"/>
-    <mergeCell ref="B110:O110"/>
-    <mergeCell ref="C125:J125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B59:O59"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="N44:N49"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="O2:R10"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:N33">
-    <cfRule type="cellIs" dxfId="62" priority="19" operator="equal">
-      <formula>4.5</formula>
+    <cfRule type="cellIs" dxfId="62" priority="27" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
-      <formula>3.5</formula>
+    <cfRule type="cellIs" dxfId="61" priority="26" operator="equal">
+      <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
-      <formula>2.5</formula>
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
+      <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="22" operator="equal">
-      <formula>1.5</formula>
+    <cfRule type="cellIs" dxfId="59" priority="24" operator="equal">
+      <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="24" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="57" priority="22" operator="equal">
+      <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
+      <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
+      <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
+      <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:N42">
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
-      <formula>4.5</formula>
+    <cfRule type="cellIs" dxfId="53" priority="14" operator="equal">
+      <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>3.5</formula>
@@ -14823,8 +14823,8 @@
     <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+      <formula>4.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="15" operator="equal">
       <formula>4</formula>
@@ -14840,152 +14840,152 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:N101">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
-      <formula>4.5</formula>
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
-      <formula>3.5</formula>
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+      <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
-      <formula>2.5</formula>
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+      <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
-      <formula>1.5</formula>
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+      <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+      <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+      <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+      <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="55" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="29" priority="58" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="29" priority="62" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="59" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="28" priority="61" operator="equal">
+      <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="60" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="61" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="26" priority="63" operator="equal">
+      <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="62" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="25" priority="59" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="63" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="24" priority="58" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113">
-    <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="69" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="66" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="67" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="68" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="69" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L113">
-    <cfRule type="cellIs" dxfId="17" priority="70" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="72" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="75" operator="equal">
       <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="70" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113">
-    <cfRule type="cellIs" dxfId="11" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="81" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="78" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="80" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="81" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:AC42 D113">
-    <cfRule type="cellIs" dxfId="5" priority="46" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="5" priority="51" operator="equal">
+      <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
+      <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="48" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="49" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="2" priority="47" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
